--- a/misc/housing/housing_results.xlsx
+++ b/misc/housing/housing_results.xlsx
@@ -509,25 +509,25 @@
         <v>44378</v>
       </c>
       <c r="B2" t="n">
-        <v>3.766984688920329</v>
+        <v>3.766984688920293</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.16</v>
+        <v>1.933333333333335</v>
       </c>
       <c r="D2" t="n">
-        <v>2.132923186634096</v>
+        <v>1.482743683510626</v>
       </c>
       <c r="E2" t="n">
-        <v>10.80737686157227</v>
+        <v>3.380477666854858</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7957945890883393</v>
+        <v>-0.7957945890883404</v>
       </c>
       <c r="G2" t="n">
-        <v>4.499209047375788</v>
+        <v>0.182934925460802</v>
       </c>
       <c r="H2" t="n">
-        <v>1.58026953454754</v>
+        <v>1.488835426057615</v>
       </c>
       <c r="I2" t="n">
         <v>-5.794459861988171</v>
@@ -536,10 +536,10 @@
         <v>3.522047919629248</v>
       </c>
       <c r="K2" t="n">
-        <v>3.282154423614552</v>
+        <v>1.731272757049221</v>
       </c>
       <c r="L2" t="n">
-        <v>2.670999040748611</v>
+        <v>1.719665621468772</v>
       </c>
     </row>
     <row r="3">
@@ -547,25 +547,25 @@
         <v>44409</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.680067577309844</v>
+        <v>-3.680067577309853</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.804999999999999</v>
+        <v>-4.333333333333335</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.204038524876169</v>
+        <v>-3.494662540108759</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4511221349239349</v>
+        <v>1.895992636680603</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.748390441205871</v>
+        <v>-2.74839044120587</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.396231704963625</v>
+        <v>-0.2703259732756528</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.213302975466065</v>
+        <v>-3.512147493841843</v>
       </c>
       <c r="I3" t="n">
         <v>-2.002416232301968</v>
@@ -574,10 +574,10 @@
         <v>-3.061716303675877</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.429867419246511</v>
+        <v>-2.281396590264457</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.969716325129315</v>
+        <v>-2.412727315111431</v>
       </c>
     </row>
     <row r="4">
@@ -585,25 +585,25 @@
         <v>44440</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.719447275146581</v>
+        <v>-5.719447275146613</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.950000000000001</v>
+        <v>1.155555555555556</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.92978510522478</v>
+        <v>-5.996474352626135</v>
       </c>
       <c r="E4" t="n">
-        <v>4.739393711090088</v>
+        <v>3.502084016799927</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.217421651533604</v>
+        <v>-2.217421651533603</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.626629478330968</v>
+        <v>-0.5544471089848315</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.080676859756861</v>
+        <v>-7.391180985024989</v>
       </c>
       <c r="I4" t="n">
         <v>-7.025072398607217</v>
@@ -612,10 +612,10 @@
         <v>5.322877510363931</v>
       </c>
       <c r="K4" t="n">
-        <v>-3.808917871078137</v>
+        <v>-0.87425019454863</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.26775643824271</v>
+        <v>-1.628874184349646</v>
       </c>
     </row>
     <row r="5">
@@ -623,25 +623,25 @@
         <v>44470</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.509883856750784</v>
+        <v>-5.509883856750804</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.37</v>
+        <v>-0.5555555555555556</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.048134301007781</v>
+        <v>-5.917062013689344</v>
       </c>
       <c r="E5" t="n">
-        <v>8.035329818725586</v>
+        <v>3.302747964859009</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6659978218291308</v>
+        <v>0.66599782182913</v>
       </c>
       <c r="G5" t="n">
-        <v>1.441172003837657</v>
+        <v>-0.5910935442156322</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.829710289314036</v>
+        <v>-7.714469693793076</v>
       </c>
       <c r="I5" t="n">
         <v>4.830753015605916</v>
@@ -650,10 +650,10 @@
         <v>-1.709188667239948</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.632807380742388</v>
+        <v>-3.338250635082885</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.563254333899927</v>
+        <v>-2.466820449798917</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         <v>-14.83262880720602</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.975</v>
+        <v>-10.12222222222222</v>
       </c>
       <c r="D6" t="n">
-        <v>-11.5164232810996</v>
+        <v>-8.464672495330076</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.510663986206055</v>
+        <v>-5.632011413574219</v>
       </c>
       <c r="F6" t="n">
         <v>-10.27313503612037</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.0824282535164</v>
+        <v>-0.6757993710674836</v>
       </c>
       <c r="H6" t="n">
-        <v>-11.15095674835141</v>
+        <v>-10.548351090428</v>
       </c>
       <c r="I6" t="n">
         <v>-21.71020679150999</v>
@@ -688,10 +688,10 @@
         <v>-6.473042146245264</v>
       </c>
       <c r="K6" t="n">
-        <v>-12.02200460302461</v>
+        <v>-5.899064202580251</v>
       </c>
       <c r="L6" t="n">
-        <v>-10.13023780578398</v>
+        <v>-8.039314852111977</v>
       </c>
     </row>
     <row r="7">
@@ -699,25 +699,25 @@
         <v>44531</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.509085938046505</v>
+        <v>-4.509085938046499</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.660000000000001</v>
+        <v>-7.533333333333335</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.897758260194833</v>
+        <v>-3.307901347294179</v>
       </c>
       <c r="E7" t="n">
-        <v>-6.462928295135498</v>
+        <v>-3.659195423126221</v>
       </c>
       <c r="F7" t="n">
-        <v>-6.303445508920525</v>
+        <v>-6.30344550892052</v>
       </c>
       <c r="G7" t="n">
-        <v>1.272984401441768</v>
+        <v>-0.266514590871666</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.995897900223228</v>
+        <v>-4.891276551118315</v>
       </c>
       <c r="I7" t="n">
         <v>-15.01114155548225</v>
@@ -726,10 +726,10 @@
         <v>-3.72466142144948</v>
       </c>
       <c r="K7" t="n">
-        <v>-2.410666478942655</v>
+        <v>-2.960817521146487</v>
       </c>
       <c r="L7" t="n">
-        <v>-3.460459122552624</v>
+        <v>-4.120315458505484</v>
       </c>
     </row>
     <row r="8">
@@ -737,25 +737,25 @@
         <v>44562</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.7829474983089865</v>
+        <v>-0.7829474983090242</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.8550000000000008</v>
+        <v>1.188888888888888</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1475291752331447</v>
+        <v>0.05021633417338123</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1426912993192673</v>
+        <v>3.158688306808472</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.477828572556632</v>
+        <v>-3.477828572556631</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9405000434582282</v>
+        <v>0.1055137313022051</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.933135486040305</v>
+        <v>-0.1980413694712755</v>
       </c>
       <c r="I8" t="n">
         <v>-4.039827183609478</v>
@@ -764,10 +764,10 @@
         <v>-7.070377187854572</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.5918609802970213</v>
+        <v>-2.38763494200788</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.441765428163339</v>
+        <v>-0.9769878819480137</v>
       </c>
     </row>
     <row r="9">
@@ -775,25 +775,25 @@
         <v>44593</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.989552599329707</v>
+        <v>-2.989552599329718</v>
       </c>
       <c r="C9" t="n">
-        <v>2.384999999999999</v>
+        <v>-0.2444444444444464</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.091207925228306</v>
+        <v>1.284962313964566</v>
       </c>
       <c r="E9" t="n">
-        <v>5.966415405273438</v>
+        <v>6.658756732940674</v>
       </c>
       <c r="F9" t="n">
-        <v>2.842405026150255</v>
+        <v>2.842405026150257</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.175377510256047</v>
+        <v>0.3541032760774047</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.020375438183346</v>
+        <v>1.819079363807913</v>
       </c>
       <c r="I9" t="n">
         <v>2.772226446684454</v>
@@ -802,10 +802,10 @@
         <v>3.221273910068808</v>
       </c>
       <c r="K9" t="n">
-        <v>-4.395101849256367</v>
+        <v>1.798152183318042</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.107841431844086</v>
+        <v>1.488676641879842</v>
       </c>
     </row>
     <row r="10">
@@ -813,25 +813,25 @@
         <v>44621</v>
       </c>
       <c r="B10" t="n">
-        <v>17.75005548525185</v>
+        <v>17.75005548525182</v>
       </c>
       <c r="C10" t="n">
-        <v>10.475</v>
+        <v>11.82222222222223</v>
       </c>
       <c r="D10" t="n">
-        <v>13.34877774024912</v>
+        <v>8.99391489144843</v>
       </c>
       <c r="E10" t="n">
-        <v>19.55795860290527</v>
+        <v>12.72724342346191</v>
       </c>
       <c r="F10" t="n">
         <v>18.77745861182829</v>
       </c>
       <c r="G10" t="n">
-        <v>15.15509737475784</v>
+        <v>0.9132362947395211</v>
       </c>
       <c r="H10" t="n">
-        <v>14.5191926628852</v>
+        <v>11.50695758244602</v>
       </c>
       <c r="I10" t="n">
         <v>29.69499134144737</v>
@@ -840,10 +840,10 @@
         <v>3.531279501222999</v>
       </c>
       <c r="K10" t="n">
-        <v>15.80811517429829</v>
+        <v>5.317157792802846</v>
       </c>
       <c r="L10" t="n">
-        <v>14.3527170389247</v>
+        <v>9.774114735319667</v>
       </c>
     </row>
     <row r="11">
@@ -851,25 +851,25 @@
         <v>44652</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.801183985420062</v>
+        <v>-1.801183985420047</v>
       </c>
       <c r="C11" t="n">
-        <v>7.564999999999998</v>
+        <v>8.077777777777776</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1543694985502182</v>
+        <v>3.82148350211316</v>
       </c>
       <c r="E11" t="n">
-        <v>8.454806327819824</v>
+        <v>4.269022464752197</v>
       </c>
       <c r="F11" t="n">
-        <v>2.047619696517632</v>
+        <v>2.047619696517633</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.810484522323225</v>
+        <v>0.690572157809309</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.201553822157085</v>
+        <v>5.464218887543592</v>
       </c>
       <c r="I11" t="n">
         <v>14.90697348056312</v>
@@ -878,10 +878,10 @@
         <v>3.532457192702039</v>
       </c>
       <c r="K11" t="n">
-        <v>-4.604407443300124</v>
+        <v>3.229082746018314</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.251319343309058</v>
+        <v>3.484944139981877</v>
       </c>
     </row>
     <row r="12">
@@ -889,25 +889,25 @@
         <v>44682</v>
       </c>
       <c r="B12" t="n">
-        <v>13.71546875051495</v>
+        <v>13.71546875051493</v>
       </c>
       <c r="C12" t="n">
-        <v>3.214999999999999</v>
+        <v>0.2333333333333327</v>
       </c>
       <c r="D12" t="n">
-        <v>11.50359174756261</v>
+        <v>8.154183452653218</v>
       </c>
       <c r="E12" t="n">
-        <v>13.94483661651611</v>
+        <v>8.419140815734863</v>
       </c>
       <c r="F12" t="n">
-        <v>5.495073715637337</v>
+        <v>5.495073715637335</v>
       </c>
       <c r="G12" t="n">
-        <v>8.913848988115042</v>
+        <v>0.8769718894314126</v>
       </c>
       <c r="H12" t="n">
-        <v>12.43636680064217</v>
+        <v>9.979916489503465</v>
       </c>
       <c r="I12" t="n">
         <v>5.86549781689009</v>
@@ -916,10 +916,10 @@
         <v>1.720121298662021</v>
       </c>
       <c r="K12" t="n">
-        <v>11.68856151309072</v>
+        <v>4.192336559198966</v>
       </c>
       <c r="L12" t="n">
-        <v>9.304307056759708</v>
+        <v>5.646086301396288</v>
       </c>
     </row>
     <row r="13">
@@ -927,25 +927,25 @@
         <v>44713</v>
       </c>
       <c r="B13" t="n">
-        <v>12.09816059111395</v>
+        <v>12.09816059111397</v>
       </c>
       <c r="C13" t="n">
-        <v>2.225000000000002</v>
+        <v>0.1666666666666651</v>
       </c>
       <c r="D13" t="n">
-        <v>10.70713761328016</v>
+        <v>7.036247327327518</v>
       </c>
       <c r="E13" t="n">
-        <v>3.534612894058228</v>
+        <v>7.400834560394287</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5465199962334236</v>
+        <v>-0.5465199962334242</v>
       </c>
       <c r="G13" t="n">
-        <v>10.64187333689781</v>
+        <v>0.6949185261173595</v>
       </c>
       <c r="H13" t="n">
-        <v>9.187393829851871</v>
+        <v>8.55721904342052</v>
       </c>
       <c r="I13" t="n">
         <v>-1.56973918677408</v>
@@ -954,10 +954,10 @@
         <v>-0.08592920740048093</v>
       </c>
       <c r="K13" t="n">
-        <v>10.64247591928788</v>
+        <v>3.055402787379133</v>
       </c>
       <c r="L13" t="n">
-        <v>7.125858101847769</v>
+        <v>4.170924550303739</v>
       </c>
     </row>
     <row r="14">
@@ -965,25 +965,25 @@
         <v>44743</v>
       </c>
       <c r="B14" t="n">
-        <v>5.268035026482507</v>
+        <v>5.268035026482467</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.17</v>
+        <v>1.700000000000003</v>
       </c>
       <c r="D14" t="n">
-        <v>4.612210488573699</v>
+        <v>2.636758164807733</v>
       </c>
       <c r="E14" t="n">
-        <v>6.397293567657471</v>
+        <v>3.225916862487793</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8411425652250309</v>
+        <v>-0.8411425652250307</v>
       </c>
       <c r="G14" t="n">
-        <v>6.691045737340787</v>
+        <v>0.2664397268074629</v>
       </c>
       <c r="H14" t="n">
-        <v>3.573843177536319</v>
+        <v>3.267717447353216</v>
       </c>
       <c r="I14" t="n">
         <v>-4.557142688734477</v>
@@ -992,10 +992,10 @@
         <v>3.535914287043733</v>
       </c>
       <c r="K14" t="n">
-        <v>5.177641313786538</v>
+        <v>2.356690487068137</v>
       </c>
       <c r="L14" t="n">
-        <v>3.773593191181587</v>
+        <v>2.278511746964091</v>
       </c>
     </row>
     <row r="15">
@@ -1003,25 +1003,25 @@
         <v>44774</v>
       </c>
       <c r="B15" t="n">
-        <v>-6.246215274425218</v>
+        <v>-6.246215274425245</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.72</v>
+        <v>-3.477777777777779</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.021384170958075</v>
+        <v>-4.799274737412882</v>
       </c>
       <c r="E15" t="n">
-        <v>7.124857425689697</v>
+        <v>-0.3600298464298248</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.726875640642088</v>
+        <v>-4.726875640642084</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.441306049411105</v>
+        <v>-0.3089458323371603</v>
       </c>
       <c r="H15" t="n">
-        <v>-4.118481592241511</v>
+        <v>-5.379343994737781</v>
       </c>
       <c r="I15" t="n">
         <v>-2.226612149517955</v>
@@ -1030,10 +1030,10 @@
         <v>0.1222710515639767</v>
       </c>
       <c r="K15" t="n">
-        <v>-5.602000972025944</v>
+        <v>-1.855339591836988</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.795824636009296</v>
+        <v>-2.931181925437681</v>
       </c>
     </row>
     <row r="16">
@@ -1041,25 +1041,25 @@
         <v>44805</v>
       </c>
       <c r="B16" t="n">
-        <v>-7.15202152677955</v>
+        <v>-7.152021526779585</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.4450000000000003</v>
+        <v>1.28888888888889</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.813230364534888</v>
+        <v>-5.700808456664333</v>
       </c>
       <c r="E16" t="n">
-        <v>7.874436378479004</v>
+        <v>3.502084016799927</v>
       </c>
       <c r="F16" t="n">
         <v>-2.317323495658434</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09113170122271816</v>
+        <v>-0.4738737208287568</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.657430223974247</v>
+        <v>-7.529028995081521</v>
       </c>
       <c r="I16" t="n">
         <v>-5.774572987381077</v>
@@ -1068,10 +1068,10 @@
         <v>3.53826967000181</v>
       </c>
       <c r="K16" t="n">
-        <v>-3.572773349843693</v>
+        <v>-1.488211015302823</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.915822307679</v>
+        <v>-1.964866031916167</v>
       </c>
     </row>
     <row r="17">
@@ -1079,25 +1079,25 @@
         <v>44835</v>
       </c>
       <c r="B17" t="n">
-        <v>-8.598672641285669</v>
+        <v>-8.59867264128569</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.37</v>
+        <v>-1.999999999999998</v>
       </c>
       <c r="D17" t="n">
-        <v>-7.011663185457315</v>
+        <v>-6.723979081374877</v>
       </c>
       <c r="E17" t="n">
-        <v>7.231811046600342</v>
+        <v>2.533182382583618</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6659978218291308</v>
+        <v>0.66599782182913</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6196337137974898</v>
+        <v>-0.5826564111523446</v>
       </c>
       <c r="H17" t="n">
-        <v>-5.227646694162511</v>
+        <v>-9.001421643440496</v>
       </c>
       <c r="I17" t="n">
         <v>3.369479422974109</v>
@@ -1106,10 +1106,10 @@
         <v>-1.695322299825463</v>
       </c>
       <c r="K17" t="n">
-        <v>-4.40222854055023</v>
+        <v>-3.759800118139434</v>
       </c>
       <c r="L17" t="n">
-        <v>-2.767065367094482</v>
+        <v>-3.338003104244797</v>
       </c>
     </row>
     <row r="18">
@@ -1117,25 +1117,25 @@
         <v>44866</v>
       </c>
       <c r="B18" t="n">
-        <v>-14.89989599602271</v>
+        <v>-14.8998959960227</v>
       </c>
       <c r="C18" t="n">
-        <v>-6.975</v>
+        <v>-9.466666666666667</v>
       </c>
       <c r="D18" t="n">
-        <v>-11.32532736163125</v>
+        <v>-8.111639576818106</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.573058605194092</v>
+        <v>-4.131880760192871</v>
       </c>
       <c r="F18" t="n">
-        <v>-7.810734258117222</v>
+        <v>-7.810734258117224</v>
       </c>
       <c r="G18" t="n">
-        <v>-9.377056986115544</v>
+        <v>-0.6098568212158209</v>
       </c>
       <c r="H18" t="n">
-        <v>-10.79580344976307</v>
+        <v>-10.37839572946452</v>
       </c>
       <c r="I18" t="n">
         <v>-19.812149356065</v>
@@ -1144,10 +1144,10 @@
         <v>-6.45917577883078</v>
       </c>
       <c r="K18" t="n">
-        <v>-11.69091881063377</v>
+        <v>-5.815809443170374</v>
       </c>
       <c r="L18" t="n">
-        <v>-9.709495356980241</v>
+        <v>-7.533774352874769</v>
       </c>
     </row>
     <row r="19">
@@ -1155,25 +1155,25 @@
         <v>44896</v>
       </c>
       <c r="B19" t="n">
-        <v>-5.779200130065455</v>
+        <v>-5.779200130065444</v>
       </c>
       <c r="C19" t="n">
-        <v>-4.69</v>
+        <v>-7.533333333333335</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.118467174910207</v>
+        <v>-4.108391167987453</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.518676519393921</v>
+        <v>-3.821643352508545</v>
       </c>
       <c r="F19" t="n">
-        <v>-6.303445508920525</v>
+        <v>-6.30344550892052</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5809860377129511</v>
+        <v>-0.2952714863940045</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.606771729741952</v>
+        <v>-5.84563097444587</v>
       </c>
       <c r="I19" t="n">
         <v>-16.24255855467771</v>
@@ -1182,10 +1182,10 @@
         <v>-3.710795054034995</v>
       </c>
       <c r="K19" t="n">
-        <v>-3.601661940698152</v>
+        <v>-3.283899171624956</v>
       </c>
       <c r="L19" t="n">
-        <v>-4.129829429185248</v>
+        <v>-4.53444422331439</v>
       </c>
     </row>
     <row r="20">
@@ -1193,25 +1193,25 @@
         <v>44927</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.116530879184957</v>
+        <v>-1.116530879185004</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.7350000000000012</v>
+        <v>1.188888888888888</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.8744158753521265</v>
+        <v>-0.400458016502272</v>
       </c>
       <c r="E20" t="n">
-        <v>2.835302114486694</v>
+        <v>3.683600902557373</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.477828572556632</v>
+        <v>-3.477828572556631</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.2777482803025944</v>
+        <v>0.07832671753479581</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.192079761395865</v>
+        <v>-0.6908707781899959</v>
       </c>
       <c r="I20" t="n">
         <v>-5.186981253147601</v>
@@ -1220,10 +1220,10 @@
         <v>0.1960109979384095</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.528786306961139</v>
+        <v>-0.1388443542389302</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.077551048649082</v>
+        <v>-0.08707443301113268</v>
       </c>
     </row>
     <row r="21">
@@ -1231,25 +1231,25 @@
         <v>44958</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.39173144969743</v>
+        <v>-1.391731449697451</v>
       </c>
       <c r="C21" t="n">
-        <v>3.844999999999999</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3340022184330091</v>
+        <v>1.709432863687346</v>
       </c>
       <c r="E21" t="n">
-        <v>9.79460620880127</v>
+        <v>7.26278829574585</v>
       </c>
       <c r="F21" t="n">
-        <v>5.196965228547343</v>
+        <v>5.196965228547342</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.849485515170636</v>
+        <v>0.3691513031110336</v>
       </c>
       <c r="H21" t="n">
-        <v>-3.044789997294321</v>
+        <v>2.704838363406439</v>
       </c>
       <c r="I21" t="n">
         <v>2.653789681466935</v>
@@ -1258,10 +1258,10 @@
         <v>3.544082147301578</v>
       </c>
       <c r="K21" t="n">
-        <v>-3.762002320720795</v>
+        <v>2.206023937939683</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.09005649689595019</v>
+        <v>2.246994856002816</v>
       </c>
     </row>
     <row r="22">
@@ -1269,25 +1269,25 @@
         <v>44986</v>
       </c>
       <c r="B22" t="n">
-        <v>20.6317746345679</v>
+        <v>20.63177463456788</v>
       </c>
       <c r="C22" t="n">
-        <v>8.520000000000001</v>
+        <v>10.65555555555556</v>
       </c>
       <c r="D22" t="n">
-        <v>16.85273495371469</v>
+        <v>10.47286105276621</v>
       </c>
       <c r="E22" t="n">
-        <v>17.4290771484375</v>
+        <v>15.95274829864502</v>
       </c>
       <c r="F22" t="n">
         <v>18.85837218430682</v>
       </c>
       <c r="G22" t="n">
-        <v>19.88022808480418</v>
+        <v>0.9469876043658784</v>
       </c>
       <c r="H22" t="n">
-        <v>16.11233654204049</v>
+        <v>13.09934212192658</v>
       </c>
       <c r="I22" t="n">
         <v>31.49535481589763</v>
@@ -1296,10 +1296,10 @@
         <v>3.545145868637483</v>
       </c>
       <c r="K22" t="n">
-        <v>18.87477975380419</v>
+        <v>5.863825198309979</v>
       </c>
       <c r="L22" t="n">
-        <v>16.08059897933546</v>
+        <v>10.69996864461498</v>
       </c>
     </row>
     <row r="23">
@@ -1307,25 +1307,25 @@
         <v>45017</v>
       </c>
       <c r="B23" t="n">
-        <v>1.979166006579007</v>
+        <v>1.979166006579027</v>
       </c>
       <c r="C23" t="n">
-        <v>7.195000000000002</v>
+        <v>9.933333333333332</v>
       </c>
       <c r="D23" t="n">
-        <v>4.028314405453023</v>
+        <v>6.299603576664594</v>
       </c>
       <c r="E23" t="n">
-        <v>10.25272083282471</v>
+        <v>8.322806358337402</v>
       </c>
       <c r="F23" t="n">
-        <v>5.933148972135982</v>
+        <v>5.933148972135985</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.446834273566156</v>
+        <v>0.8096487346668596</v>
       </c>
       <c r="H23" t="n">
-        <v>2.360860569935246</v>
+        <v>8.634905508991906</v>
       </c>
       <c r="I23" t="n">
         <v>13.94893835972937</v>
@@ -1334,10 +1334,10 @@
         <v>-3.038618354667637</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.035602565683968</v>
+        <v>2.135311962997043</v>
       </c>
       <c r="L23" t="n">
-        <v>1.725868913386992</v>
+        <v>4.61448010130828</v>
       </c>
     </row>
     <row r="24">
@@ -1345,25 +1345,25 @@
         <v>45047</v>
       </c>
       <c r="B24" t="n">
-        <v>13.68747376204763</v>
+        <v>13.68747376204761</v>
       </c>
       <c r="C24" t="n">
-        <v>2.179999999999999</v>
+        <v>1.433333333333332</v>
       </c>
       <c r="D24" t="n">
-        <v>11.21266178560574</v>
+        <v>7.859221913701178</v>
       </c>
       <c r="E24" t="n">
-        <v>13.8176908493042</v>
+        <v>8.419140815734863</v>
       </c>
       <c r="F24" t="n">
-        <v>5.142064383724152</v>
+        <v>5.14206438372415</v>
       </c>
       <c r="G24" t="n">
-        <v>8.46302878115198</v>
+        <v>0.8205653705838819</v>
       </c>
       <c r="H24" t="n">
-        <v>12.31224479159826</v>
+        <v>9.843208345671023</v>
       </c>
       <c r="I24" t="n">
         <v>6.691423238956697</v>
@@ -1372,10 +1372,10 @@
         <v>3.553898410376313</v>
       </c>
       <c r="K24" t="n">
-        <v>11.48758244493262</v>
+        <v>4.739224042210406</v>
       </c>
       <c r="L24" t="n">
-        <v>9.225653759196824</v>
+        <v>5.962481003401146</v>
       </c>
     </row>
     <row r="25">
@@ -1383,25 +1383,25 @@
         <v>45078</v>
       </c>
       <c r="B25" t="n">
-        <v>8.942730951384718</v>
+        <v>8.942730951384736</v>
       </c>
       <c r="C25" t="n">
-        <v>1.780000000000002</v>
+        <v>1.844444444444444</v>
       </c>
       <c r="D25" t="n">
-        <v>7.689002649695483</v>
+        <v>5.231594018995668</v>
       </c>
       <c r="E25" t="n">
-        <v>4.61487865447998</v>
+        <v>1.440378546714783</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.723625207744746</v>
+        <v>-1.723625207744747</v>
       </c>
       <c r="G25" t="n">
-        <v>6.744808222676694</v>
+        <v>0.5597836632808874</v>
       </c>
       <c r="H25" t="n">
-        <v>6.358704543160672</v>
+        <v>6.559896312979925</v>
       </c>
       <c r="I25" t="n">
         <v>-3.789232407848057</v>
@@ -1410,10 +1410,10 @@
         <v>3.548640953026888</v>
       </c>
       <c r="K25" t="n">
-        <v>7.348747905740694</v>
+        <v>3.556106976429234</v>
       </c>
       <c r="L25" t="n">
-        <v>5.348527851274572</v>
+        <v>3.336803682870732</v>
       </c>
     </row>
   </sheetData>
@@ -1427,7 +1427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,40 +1563,35 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>univariate</t>
+          <t>models</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>models</t>
+          <t>weights</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>weights</t>
+          <t>LevelTestSetRMSE</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>LevelTestSetRMSE</t>
+          <t>LevelTestSetMAPE</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>LevelTestSetMAPE</t>
+          <t>LevelTestSetMAE</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>LevelTestSetMAE</t>
+          <t>LevelTestSetR2</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>LevelTestSetR2</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>best_model</t>
         </is>
@@ -1605,12 +1600,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1620,7 +1615,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'max_depth': 3}</t>
+          <t>{'n_neighbors': 9, 'weights': 'uniform'}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1644,19 +1639,19 @@
         <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>18.02045526578814</v>
+        <v>12.90048727825662</v>
       </c>
       <c r="L2" t="n">
-        <v>11.45372756374361</v>
+        <v>3.410422048865689</v>
       </c>
       <c r="M2" t="n">
-        <v>14.44604211747646</v>
+        <v>10.2037037037037</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.4779747203723179</v>
+        <v>0.2425609038133143</v>
       </c>
       <c r="O2" t="n">
-        <v>5.662326812744141</v>
+        <v>0.2111111111111094</v>
       </c>
       <c r="P2" t="n">
         <v>8.600000000000023</v>
@@ -1665,17 +1660,17 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>7.613302718263277</v>
+        <v>22.08885143617382</v>
       </c>
       <c r="S2" t="n">
-        <v>4.911146087889795</v>
+        <v>9.843431419125272</v>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>3.836273270434347</v>
+        <v>7.66327969348659</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9163427292550247</v>
+        <v>0.6639290096719305</v>
       </c>
       <c r="W2" t="n">
         <v>6</v>
@@ -1686,46 +1681,41 @@
         </is>
       </c>
       <c r="Y2" t="n">
-        <v>18.9349141522657</v>
+        <v>17.29423117975371</v>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
+      <c r="AB2" t="n">
+        <v>10.68541899095892</v>
+      </c>
       <c r="AC2" t="n">
-        <v>12.71090216944231</v>
+        <v>0.06513677577224607</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.07102823829703013</v>
+        <v>8.617592592592581</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.757459500432015</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.2170274703948377</v>
-      </c>
-      <c r="AG2" t="b">
+        <v>0.4466793413530572</v>
+      </c>
+      <c r="AF2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
-        </is>
-      </c>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'alpha': 1.3, 'l1_ratio': 1.0}</t>
+          <t>{'changepoints': 0}</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1745,19 +1735,19 @@
         <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>14.02642592524194</v>
+        <v>13.83945973859246</v>
       </c>
       <c r="L3" t="n">
-        <v>6.663780491287947</v>
+        <v>6.805997555488756</v>
       </c>
       <c r="M3" t="n">
-        <v>10.2331159818476</v>
+        <v>10.82154649397032</v>
       </c>
       <c r="N3" t="n">
-        <v>0.104574344698823</v>
+        <v>0.1282865206832411</v>
       </c>
       <c r="O3" t="n">
-        <v>8.795879531155014</v>
+        <v>-0.08592920740048182</v>
       </c>
       <c r="P3" t="n">
         <v>8.600000000000023</v>
@@ -1766,17 +1756,17 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>22.58932644192685</v>
+        <v>28.52861565958576</v>
       </c>
       <c r="S3" t="n">
-        <v>12.05240000938119</v>
+        <v>15.88908934647672</v>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>9.386526075224372</v>
+        <v>11.96717682947196</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4961687971781187</v>
+        <v>0.1212153067386073</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
@@ -1787,45 +1777,52 @@
         </is>
       </c>
       <c r="Y3" t="n">
-        <v>9.710460564204618</v>
+        <v>15.85656290839023</v>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="AB3" t="n">
+        <v>17.84098876221841</v>
+      </c>
       <c r="AC3" t="n">
-        <v>12.83287437311246</v>
+        <v>0.0983654136402418</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.08414943396922821</v>
+        <v>13.54322601313066</v>
       </c>
       <c r="AE3" t="n">
-        <v>11.11989880828007</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.2019287636698676</v>
-      </c>
-      <c r="AG3" t="b">
+        <v>-0.5425228717125137</v>
+      </c>
+      <c r="AF3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>silverkite</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>silverkite</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'changepoints': 0}</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>{'alpha': 2.0, 'l1_ratio': 0.0}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F4" t="n">
         <v>749</v>
       </c>
@@ -1842,19 +1839,19 @@
         <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>13.83945973859246</v>
+        <v>14.88100405815091</v>
       </c>
       <c r="L4" t="n">
-        <v>6.805997555488756</v>
+        <v>0.9551364952389999</v>
       </c>
       <c r="M4" t="n">
-        <v>10.82154649397032</v>
+        <v>11.28436423496344</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1282865206832411</v>
+        <v>-0.00785941843021809</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.08592920740048182</v>
+        <v>0.5765355986389751</v>
       </c>
       <c r="P4" t="n">
         <v>8.600000000000023</v>
@@ -1863,17 +1860,17 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>34.72617742823966</v>
+        <v>29.41089159782237</v>
       </c>
       <c r="S4" t="n">
-        <v>15.88908934647672</v>
+        <v>16.57315668656007</v>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>11.96717682947196</v>
+        <v>12.34045324415491</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1212153067386073</v>
+        <v>0.04731690545640299</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1884,64 +1881,51 @@
         </is>
       </c>
       <c r="Y4" t="n">
-        <v>15.85656290839023</v>
-      </c>
-      <c r="Z4" t="b">
-        <v>1</v>
-      </c>
+        <v>13.80960131137844</v>
+      </c>
+      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="AB4" t="n">
+        <v>17.33300005326848</v>
+      </c>
       <c r="AC4" t="n">
-        <v>17.84098876221841</v>
+        <v>0.1011041181960743</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0983654136402418</v>
+        <v>13.74240056805286</v>
       </c>
       <c r="AE4" t="n">
-        <v>13.54322601313066</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>-0.5425228717125137</v>
-      </c>
-      <c r="AG4" t="b">
+        <v>-0.4559325300193688</v>
+      </c>
+      <c r="AF4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>knn</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 20, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'how': 'simple', 'models': 'top_3', 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>749</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
         <v>1</v>
       </c>
@@ -1949,19 +1933,19 @@
         <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>13.84369388626701</v>
+        <v>13.72245828976437</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9462597100450439</v>
+        <v>2.361555516158489</v>
       </c>
       <c r="M5" t="n">
-        <v>10.74541666666666</v>
+        <v>10.62047969885871</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1277530420227245</v>
+        <v>0.1429634825139204</v>
       </c>
       <c r="O5" t="n">
-        <v>2.39</v>
+        <v>2.680036347117389</v>
       </c>
       <c r="P5" t="n">
         <v>8.600000000000023</v>
@@ -1970,57 +1954,52 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>21.48885783803678</v>
+        <v>28.99128542764963</v>
       </c>
       <c r="S5" t="n">
-        <v>10.41035788413934</v>
+        <v>14.58215057259103</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>8.125675862068965</v>
+        <v>10.96587285958389</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6241026139300599</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6</v>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="Y5" t="n">
-        <v>16.34484041932907</v>
-      </c>
-      <c r="Z5" t="inlineStr"/>
+        <v>0.2624675336395683</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>['elasticnet', 'mlp', 'silverkite']</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
+      <c r="AB5" t="n">
+        <v>18.23035091851636</v>
+      </c>
       <c r="AC5" t="n">
-        <v>15.489817892194</v>
+        <v>0.1135688598646424</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1028335948847694</v>
+        <v>15.37590686011371</v>
       </c>
       <c r="AE5" t="n">
-        <v>13.75166666666667</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>-0.1627501302393579</v>
-      </c>
-      <c r="AG5" t="b">
+        <v>-0.6105856673492964</v>
+      </c>
+      <c r="AF5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2030,12 +2009,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'adam', 'random_state': 20}</t>
+          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.5}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2054,19 +2033,19 @@
         <v>12</v>
       </c>
       <c r="K6" t="n">
-        <v>14.29669440533763</v>
+        <v>13.60846008092451</v>
       </c>
       <c r="L6" t="n">
-        <v>3.993403148375822</v>
+        <v>2.93345215738552</v>
       </c>
       <c r="M6" t="n">
-        <v>10.62350907744359</v>
+        <v>10.71703143211053</v>
       </c>
       <c r="N6" t="n">
-        <v>0.06973483895748134</v>
+        <v>0.1571438583372174</v>
       </c>
       <c r="O6" t="n">
-        <v>9.941166876312057</v>
+        <v>5.771729314177447</v>
       </c>
       <c r="P6" t="n">
         <v>8.600000000000023</v>
@@ -2075,17 +2054,17 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>21.0318193636044</v>
+        <v>24.72650711123894</v>
       </c>
       <c r="S6" t="n">
-        <v>11.89690823276615</v>
+        <v>13.15323089766986</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>9.110620603300209</v>
+        <v>10.04394492268175</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5090851049672716</v>
+        <v>0.3999286750336646</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -2096,36 +2075,35 @@
         </is>
       </c>
       <c r="Y6" t="n">
-        <v>11.00172937658289</v>
+        <v>16.18146494284844</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
+      <c r="AB6" t="n">
+        <v>18.60571260160168</v>
+      </c>
       <c r="AC6" t="n">
-        <v>21.68075545551926</v>
+        <v>0.1254664110610358</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.153652488704234</v>
+        <v>16.6183361615887</v>
       </c>
       <c r="AE6" t="n">
-        <v>18.76398861096449</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>-1.277941646897613</v>
-      </c>
-      <c r="AG6" t="b">
+        <v>-0.6775921658343986</v>
+      </c>
+      <c r="AF6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2135,7 +2113,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 3.0, 'epsilon': 0.5}</t>
+          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'adam', 'random_state': 20}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2159,19 +2137,19 @@
         <v>12</v>
       </c>
       <c r="K7" t="n">
-        <v>13.95708116936252</v>
+        <v>13.66207688508325</v>
       </c>
       <c r="L7" t="n">
-        <v>3.270854191716512</v>
+        <v>2.795035363479342</v>
       </c>
       <c r="M7" t="n">
-        <v>10.75923501724551</v>
+        <v>10.72260302106998</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1134061859561084</v>
+        <v>0.1504891335112754</v>
       </c>
       <c r="O7" t="n">
-        <v>9.346164642168484</v>
+        <v>7.549502650113675</v>
       </c>
       <c r="P7" t="n">
         <v>8.600000000000023</v>
@@ -2180,17 +2158,17 @@
         <v>0.95</v>
       </c>
       <c r="R7" t="n">
-        <v>20.4541306753181</v>
+        <v>26.32763419086394</v>
       </c>
       <c r="S7" t="n">
-        <v>11.79355779482858</v>
+        <v>12.67971800182986</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>9.103014619399714</v>
+        <v>9.792161637575065</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5175773772721196</v>
+        <v>0.4423558174861754</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
@@ -2201,24 +2179,23 @@
         </is>
       </c>
       <c r="Y7" t="n">
-        <v>12.8524516427542</v>
+        <v>15.70237848470783</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
+      <c r="AB7" t="n">
+        <v>22.89789138252425</v>
+      </c>
       <c r="AC7" t="n">
-        <v>31.07994432706104</v>
+        <v>0.1595180418588098</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.2178783952069605</v>
+        <v>20.80235349703296</v>
       </c>
       <c r="AE7" t="n">
-        <v>28.40806824245395</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>-3.681168104675518</v>
-      </c>
-      <c r="AG7" t="b">
+        <v>-1.540883510360808</v>
+      </c>
+      <c r="AF7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2233,7 +2210,11 @@
           <t>prophet</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>{'n_changepoints': 3}</t>
@@ -2277,7 +2258,7 @@
         <v>0.95</v>
       </c>
       <c r="R8" t="n">
-        <v>21.43624296728685</v>
+        <v>20.3730435877088</v>
       </c>
       <c r="S8" t="n">
         <v>11.30361385552777</v>
@@ -2300,24 +2281,21 @@
       <c r="Y8" t="n">
         <v>23.39663404830682</v>
       </c>
-      <c r="Z8" t="b">
-        <v>1</v>
-      </c>
+      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
+      <c r="AB8" t="n">
+        <v>33.77516179227283</v>
+      </c>
       <c r="AC8" t="n">
-        <v>33.77516179227283</v>
+        <v>0.2547405736759397</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.2547405736759397</v>
+        <v>32.16251671761294</v>
       </c>
       <c r="AE8" t="n">
-        <v>32.16251671761294</v>
-      </c>
-      <c r="AF8" t="n">
         <v>-4.52826240469527</v>
       </c>
-      <c r="AG8" t="b">
+      <c r="AF8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2363,19 +2341,19 @@
         <v>12</v>
       </c>
       <c r="K9" t="n">
-        <v>15.46228628139621</v>
+        <v>15.33390834682924</v>
       </c>
       <c r="L9" t="n">
-        <v>7.321478386752876</v>
+        <v>8.057764468082354</v>
       </c>
       <c r="M9" t="n">
-        <v>12.71338943112107</v>
+        <v>12.46754005112029</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.088135322005787</v>
+        <v>-0.07014152038113863</v>
       </c>
       <c r="O9" t="n">
-        <v>-4.06692385987388</v>
+        <v>1.638012724531711</v>
       </c>
       <c r="P9" t="n">
         <v>8.600000000000023</v>
@@ -2384,7 +2362,7 @@
         <v>0.95</v>
       </c>
       <c r="R9" t="n">
-        <v>17.6761691591244</v>
+        <v>17.87112430778082</v>
       </c>
       <c r="S9" t="n">
         <v>9.033593300903929</v>
@@ -2405,52 +2383,61 @@
         </is>
       </c>
       <c r="Y9" t="n">
-        <v>17.99249600143184</v>
+        <v>19.95997566538212</v>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
+      <c r="AB9" t="n">
+        <v>40.41429073274914</v>
+      </c>
       <c r="AC9" t="n">
-        <v>37.67962196278056</v>
+        <v>0.2753104604119101</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.2610689807019529</v>
+        <v>35.31467888761927</v>
       </c>
       <c r="AE9" t="n">
-        <v>33.30885415869872</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>-5.88029162918196</v>
-      </c>
-      <c r="AG9" t="b">
+        <v>-6.915232853907411</v>
+      </c>
+      <c r="AF9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>weighted</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('mlr', 'knn', 'svr', 'xgboost', 'gbt', 'elasticnet', 'mlp', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>{'max_depth': 2}</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F10" t="n">
         <v>749</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
@@ -2458,19 +2445,19 @@
         <v>12</v>
       </c>
       <c r="K10" t="n">
-        <v>24.20370678851658</v>
+        <v>16.34670542228259</v>
       </c>
       <c r="L10" t="n">
-        <v>23.65998654854138</v>
+        <v>10.6347515747956</v>
       </c>
       <c r="M10" t="n">
-        <v>21.11927372451957</v>
+        <v>13.03722070852915</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.666240092209523</v>
+        <v>-0.2161746907709157</v>
       </c>
       <c r="O10" t="n">
-        <v>-10.50767109732813</v>
+        <v>8.933950424194336</v>
       </c>
       <c r="P10" t="n">
         <v>8.600000000000023</v>
@@ -2479,52 +2466,51 @@
         <v>0.95</v>
       </c>
       <c r="R10" t="n">
-        <v>20.67727204378954</v>
+        <v>15.42166593467174</v>
       </c>
       <c r="S10" t="n">
-        <v>10.71997650511576</v>
+        <v>7.390840326273379</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>8.344444067918616</v>
+        <v>5.8516635816385</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6014106843093998</v>
-      </c>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+        <v>0.8105364695687787</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="Y10" t="n">
+        <v>18.86942371104253</v>
+      </c>
       <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>['elasticnet', 'mlp', 'mlr', 'svr', 'silverkite', 'knn', 'gbt', 'xgboost', 'prophet']</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>(0.17633668356405297, 0.16121205895135224, 0.15629048664982106, 0.13953455906141632, 0.10434742006140779, 0.09862822821771114, 0.07932924729953428, 0.06829070859797216, 0.016030607596732086)</t>
-        </is>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="n">
+        <v>49.17681485238803</v>
       </c>
       <c r="AC10" t="n">
-        <v>117.3914747265007</v>
+        <v>0.329881030957436</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.7415696040799977</v>
+        <v>42.52556112607321</v>
       </c>
       <c r="AE10" t="n">
-        <v>96.50538214058832</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>-65.7831484654176</v>
-      </c>
-      <c r="AG10" t="b">
+        <v>-10.71964794113287</v>
+      </c>
+      <c r="AF10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>weighted</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2535,7 +2521,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'how': 'simple', 'models': 'top_3', 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'how': 'weighted', 'models': ('mlr', 'knn', 'svr', 'xgboost', 'gbt', 'elasticnet', 'mlp', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2553,19 +2539,19 @@
         <v>12</v>
       </c>
       <c r="K11" t="n">
-        <v>45.22599635837728</v>
+        <v>18.83944664268008</v>
       </c>
       <c r="L11" t="n">
-        <v>48.23668171866951</v>
+        <v>15.31382142160192</v>
       </c>
       <c r="M11" t="n">
-        <v>40.48027817695166</v>
+        <v>16.49799469082041</v>
       </c>
       <c r="N11" t="n">
-        <v>-8.309187447878779</v>
+        <v>-0.6153691079718275</v>
       </c>
       <c r="O11" t="n">
-        <v>-26.3040102246632</v>
+        <v>-6.991788617260916</v>
       </c>
       <c r="P11" t="n">
         <v>8.600000000000023</v>
@@ -2574,41 +2560,44 @@
         <v>0.95</v>
       </c>
       <c r="R11" t="n">
-        <v>24.02227123860362</v>
+        <v>23.74317972717473</v>
       </c>
       <c r="S11" t="n">
-        <v>11.55972477014444</v>
+        <v>11.67407143107524</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>9.000049028741149</v>
+        <v>8.982208105034232</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5365178915811343</v>
+        <v>0.5273031820710534</v>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>['elasticnet', 'mlp', 'silverkite', 'svr', 'knn', 'mlr', 'xgboost', 'gbt', 'prophet']</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>['elasticnet', 'mlp', 'mlr']</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr"/>
+          <t>(0.17617475230304114, 0.14455443207690333, 0.14197866091935904, 0.13655091880768674, 0.11796129016910438, 0.10168964225388823, 0.09164646930217646, 0.07342794759483696, 0.016015886573003738)</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>75.27238408714007</v>
+      </c>
       <c r="AC11" t="n">
-        <v>258.6841557552907</v>
+        <v>0.4747759237574959</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.626453955008684</v>
+        <v>61.67713108930527</v>
       </c>
       <c r="AE11" t="n">
-        <v>212.0716800652376</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>-323.2899064562092</v>
-      </c>
-      <c r="AG11" t="b">
+        <v>-26.45776072059447</v>
+      </c>
+      <c r="AF11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2654,19 +2643,19 @@
         <v>12</v>
       </c>
       <c r="K12" t="n">
-        <v>131.5000578301507</v>
+        <v>131.5000578301639</v>
       </c>
       <c r="L12" t="n">
-        <v>135.3972876425069</v>
+        <v>135.3972876425191</v>
       </c>
       <c r="M12" t="n">
-        <v>121.0241864995975</v>
+        <v>121.0241864996097</v>
       </c>
       <c r="N12" t="n">
-        <v>-77.70229123656459</v>
+        <v>-77.70229123658035</v>
       </c>
       <c r="O12" t="n">
-        <v>-97.64907708145665</v>
+        <v>-97.64907708146437</v>
       </c>
       <c r="P12" t="n">
         <v>8.600000000000023</v>
@@ -2675,14 +2664,14 @@
         <v>0.95</v>
       </c>
       <c r="R12" t="n">
-        <v>25.35386756721071</v>
+        <v>25.83831704999645</v>
       </c>
       <c r="S12" t="n">
         <v>11.45232152619701</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>8.951774043500858</v>
+        <v>8.951774043500857</v>
       </c>
       <c r="V12" t="n">
         <v>0.5450904533667147</v>
@@ -2696,24 +2685,23 @@
         </is>
       </c>
       <c r="Y12" t="n">
-        <v>11.42190990889808</v>
+        <v>18.26824420448315</v>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
+      <c r="AB12" t="n">
+        <v>766.085556305734</v>
+      </c>
       <c r="AC12" t="n">
-        <v>766.0855563056543</v>
+        <v>4.7864331038514</v>
       </c>
       <c r="AD12" t="n">
-        <v>4.786433103850899</v>
+        <v>626.4526893876783</v>
       </c>
       <c r="AE12" t="n">
-        <v>626.4526893876126</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>-2843.122653152085</v>
-      </c>
-      <c r="AG12" t="b">
+        <v>-2843.122653152676</v>
+      </c>
+      <c r="AF12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12495,11 +12483,11 @@
         <v>44378</v>
       </c>
       <c r="B751" t="n">
-        <v>10.80737686157227</v>
+        <v>1.933333333333335</v>
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12508,11 +12496,11 @@
         <v>44409</v>
       </c>
       <c r="B752" t="n">
-        <v>0.4511221349239349</v>
+        <v>-4.333333333333335</v>
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12521,11 +12509,11 @@
         <v>44440</v>
       </c>
       <c r="B753" t="n">
-        <v>4.739393711090088</v>
+        <v>1.155555555555556</v>
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12534,11 +12522,11 @@
         <v>44470</v>
       </c>
       <c r="B754" t="n">
-        <v>8.035329818725586</v>
+        <v>-0.5555555555555556</v>
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12547,11 +12535,11 @@
         <v>44501</v>
       </c>
       <c r="B755" t="n">
-        <v>-1.510663986206055</v>
+        <v>-10.12222222222222</v>
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12560,11 +12548,11 @@
         <v>44531</v>
       </c>
       <c r="B756" t="n">
-        <v>-6.462928295135498</v>
+        <v>-7.533333333333335</v>
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12573,11 +12561,11 @@
         <v>44562</v>
       </c>
       <c r="B757" t="n">
-        <v>0.1426912993192673</v>
+        <v>1.188888888888888</v>
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12586,11 +12574,11 @@
         <v>44593</v>
       </c>
       <c r="B758" t="n">
-        <v>5.966415405273438</v>
+        <v>-0.2444444444444464</v>
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12599,11 +12587,11 @@
         <v>44621</v>
       </c>
       <c r="B759" t="n">
-        <v>19.55795860290527</v>
+        <v>11.82222222222223</v>
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12612,11 +12600,11 @@
         <v>44652</v>
       </c>
       <c r="B760" t="n">
-        <v>8.454806327819824</v>
+        <v>8.077777777777776</v>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12625,11 +12613,11 @@
         <v>44682</v>
       </c>
       <c r="B761" t="n">
-        <v>13.94483661651611</v>
+        <v>0.2333333333333327</v>
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12638,11 +12626,11 @@
         <v>44713</v>
       </c>
       <c r="B762" t="n">
-        <v>3.534612894058228</v>
+        <v>0.1666666666666651</v>
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12651,11 +12639,11 @@
         <v>44743</v>
       </c>
       <c r="B763" t="n">
-        <v>6.397293567657471</v>
+        <v>1.700000000000003</v>
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12664,11 +12652,11 @@
         <v>44774</v>
       </c>
       <c r="B764" t="n">
-        <v>7.124857425689697</v>
+        <v>-3.477777777777779</v>
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12677,11 +12665,11 @@
         <v>44805</v>
       </c>
       <c r="B765" t="n">
-        <v>7.874436378479004</v>
+        <v>1.28888888888889</v>
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12690,11 +12678,11 @@
         <v>44835</v>
       </c>
       <c r="B766" t="n">
-        <v>7.231811046600342</v>
+        <v>-1.999999999999998</v>
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12703,11 +12691,11 @@
         <v>44866</v>
       </c>
       <c r="B767" t="n">
-        <v>-1.573058605194092</v>
+        <v>-9.466666666666667</v>
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12716,11 +12704,11 @@
         <v>44896</v>
       </c>
       <c r="B768" t="n">
-        <v>-3.518676519393921</v>
+        <v>-7.533333333333335</v>
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12729,11 +12717,11 @@
         <v>44927</v>
       </c>
       <c r="B769" t="n">
-        <v>2.835302114486694</v>
+        <v>1.188888888888888</v>
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12742,11 +12730,11 @@
         <v>44958</v>
       </c>
       <c r="B770" t="n">
-        <v>9.79460620880127</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12755,11 +12743,11 @@
         <v>44986</v>
       </c>
       <c r="B771" t="n">
-        <v>17.4290771484375</v>
+        <v>10.65555555555556</v>
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12768,11 +12756,11 @@
         <v>45017</v>
       </c>
       <c r="B772" t="n">
-        <v>10.25272083282471</v>
+        <v>9.933333333333332</v>
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12781,11 +12769,11 @@
         <v>45047</v>
       </c>
       <c r="B773" t="n">
-        <v>13.8176908493042</v>
+        <v>1.433333333333332</v>
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12794,11 +12782,11 @@
         <v>45078</v>
       </c>
       <c r="B774" t="n">
-        <v>4.61487865447998</v>
+        <v>1.844444444444444</v>
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12834,52 +12822,52 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>xgboost</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>silverkite</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>knn</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>svr</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>weighted</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -12896,37 +12884,37 @@
         <v>19.89999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.241836071014404</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="D2" t="n">
-        <v>0.886387794678815</v>
+        <v>3.522047919629248</v>
       </c>
       <c r="E2" t="n">
-        <v>3.522047919629248</v>
+        <v>0.1979777184770827</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.415</v>
+        <v>2.886246636998671</v>
       </c>
       <c r="G2" t="n">
-        <v>5.621307478034993</v>
+        <v>2.30218474747014</v>
       </c>
       <c r="H2" t="n">
-        <v>1.130919713042628</v>
+        <v>4.938714272889683</v>
       </c>
       <c r="I2" t="n">
         <v>-8.079808106374465</v>
       </c>
       <c r="J2" t="n">
-        <v>4.001361947003546</v>
+        <v>4.001361947003545</v>
       </c>
       <c r="K2" t="n">
-        <v>8.896580223056093</v>
+        <v>3.43576192855835</v>
       </c>
       <c r="L2" t="n">
-        <v>18.70882717590647</v>
+        <v>7.173405646047521</v>
       </c>
       <c r="M2" t="n">
-        <v>49.6187862550056</v>
+        <v>49.61878625501093</v>
       </c>
     </row>
     <row r="3">
@@ -12937,22 +12925,22 @@
         <v>-16.19999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>9.237569808959961</v>
+        <v>-1.555555555555556</v>
       </c>
       <c r="D3" t="n">
-        <v>7.365696457483613</v>
+        <v>-3.061716303675877</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.061716303675877</v>
+        <v>-0.156718030029474</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4600000000000001</v>
+        <v>-0.9238396672855512</v>
       </c>
       <c r="G3" t="n">
-        <v>5.206575821177577</v>
+        <v>-0.1041624083541226</v>
       </c>
       <c r="H3" t="n">
-        <v>1.364865759999063</v>
+        <v>0.4469153318486969</v>
       </c>
       <c r="I3" t="n">
         <v>-1.111924933511838</v>
@@ -12961,13 +12949,13 @@
         <v>13.21019727290376</v>
       </c>
       <c r="K3" t="n">
-        <v>13.99409158089474</v>
+        <v>15.16585445404053</v>
       </c>
       <c r="L3" t="n">
-        <v>26.30624546753192</v>
+        <v>8.49341106381728</v>
       </c>
       <c r="M3" t="n">
-        <v>66.34646412393458</v>
+        <v>66.34646412394382</v>
       </c>
     </row>
     <row r="4">
@@ -12978,22 +12966,22 @@
         <v>3.799999999999997</v>
       </c>
       <c r="C4" t="n">
-        <v>3.075293779373169</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.91463368146767</v>
+        <v>5.322877510363931</v>
       </c>
       <c r="E4" t="n">
-        <v>5.322877510363931</v>
+        <v>-0.676968380941574</v>
       </c>
       <c r="F4" t="n">
-        <v>1.735</v>
+        <v>-1.466136241554102</v>
       </c>
       <c r="G4" t="n">
-        <v>3.509517977527088</v>
+        <v>-6.47243906367975</v>
       </c>
       <c r="H4" t="n">
-        <v>-10.74299940651766</v>
+        <v>-9.044317854084664</v>
       </c>
       <c r="I4" t="n">
         <v>-8.631864650205085</v>
@@ -13002,13 +12990,13 @@
         <v>0.7798853244689807</v>
       </c>
       <c r="K4" t="n">
-        <v>9.795755742363303</v>
+        <v>1.464264869689941</v>
       </c>
       <c r="L4" t="n">
-        <v>22.42825061949898</v>
+        <v>5.798081170694465</v>
       </c>
       <c r="M4" t="n">
-        <v>68.68986756243751</v>
+        <v>68.68986756244418</v>
       </c>
     </row>
     <row r="5">
@@ -13019,22 +13007,22 @@
         <v>4.899999999999991</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8424572348594666</v>
+        <v>1.722222222222222</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6643226359655269</v>
+        <v>-1.709188667239948</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.709188667239948</v>
+        <v>-0.7328645863309379</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.68</v>
+        <v>-4.055184024497064</v>
       </c>
       <c r="G5" t="n">
-        <v>3.306995161083708</v>
+        <v>-6.447621128515626</v>
       </c>
       <c r="H5" t="n">
-        <v>-9.385972385241907</v>
+        <v>-9.723498819920307</v>
       </c>
       <c r="I5" t="n">
         <v>6.280099472428866</v>
@@ -13043,13 +13031,13 @@
         <v>9.98119368439639</v>
       </c>
       <c r="K5" t="n">
-        <v>13.02816522104451</v>
+        <v>11.0441837310791</v>
       </c>
       <c r="L5" t="n">
-        <v>29.49111245272307</v>
+        <v>8.11910153532712</v>
       </c>
       <c r="M5" t="n">
-        <v>85.83066483305102</v>
+        <v>85.83066483305795</v>
       </c>
     </row>
     <row r="6">
@@ -13060,37 +13048,37 @@
         <v>-13.39999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.496087074279785</v>
+        <v>-6.599999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.350257792644946</v>
+        <v>-6.473042146245264</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.473042146245264</v>
+        <v>-0.7270194201240459</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.285000000000001</v>
+        <v>-5.906902922427946</v>
       </c>
       <c r="G6" t="n">
-        <v>1.47926979536503</v>
+        <v>-7.565612674118446</v>
       </c>
       <c r="H6" t="n">
-        <v>-12.32345561381563</v>
+        <v>-10.52064720091453</v>
       </c>
       <c r="I6" t="n">
         <v>-23.86272803408155</v>
       </c>
       <c r="J6" t="n">
-        <v>-4.6823529141745</v>
+        <v>-4.682352914174502</v>
       </c>
       <c r="K6" t="n">
-        <v>8.98369618414374</v>
+        <v>-4.335838317871094</v>
       </c>
       <c r="L6" t="n">
-        <v>28.42131786639398</v>
+        <v>3.86624828623344</v>
       </c>
       <c r="M6" t="n">
-        <v>92.13494159646184</v>
+        <v>92.13494159647347</v>
       </c>
     </row>
     <row r="7">
@@ -13101,37 +13089,37 @@
         <v>-2.700000000000003</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.79180240631104</v>
+        <v>-4.388888888888892</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.315313924058157</v>
+        <v>-3.72466142144948</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.72466142144948</v>
+        <v>-0.3772269539452051</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.295000000000001</v>
+        <v>-3.282983413041794</v>
       </c>
       <c r="G7" t="n">
-        <v>2.550008780370665</v>
+        <v>-3.564971849783858</v>
       </c>
       <c r="H7" t="n">
-        <v>-6.250883379455274</v>
+        <v>-5.747061863730698</v>
       </c>
       <c r="I7" t="n">
         <v>-14.54681081485071</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.3117621844375208</v>
+        <v>-0.3117621844375206</v>
       </c>
       <c r="K7" t="n">
-        <v>15.63786347486934</v>
+        <v>1.333520889282227</v>
       </c>
       <c r="L7" t="n">
-        <v>39.53309465026479</v>
+        <v>9.370540682841561</v>
       </c>
       <c r="M7" t="n">
-        <v>117.3645890944819</v>
+        <v>117.3645890944923</v>
       </c>
     </row>
     <row r="8">
@@ -13142,37 +13130,37 @@
         <v>0.1000000000000085</v>
       </c>
       <c r="C8" t="n">
-        <v>12.26745223999023</v>
+        <v>3.166666666666665</v>
       </c>
       <c r="D8" t="n">
-        <v>7.136761923581373</v>
+        <v>-7.070377187854572</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.070377187854572</v>
+        <v>0.1330448756827713</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06999999999999922</v>
+        <v>-1.637859941235906</v>
       </c>
       <c r="G8" t="n">
-        <v>3.871227857767805</v>
+        <v>2.357660853395359</v>
       </c>
       <c r="H8" t="n">
-        <v>2.606605341310415</v>
+        <v>2.023752488464083</v>
       </c>
       <c r="I8" t="n">
         <v>-3.305977486910558</v>
       </c>
       <c r="J8" t="n">
-        <v>7.502767273325027</v>
+        <v>8.421015281457095</v>
       </c>
       <c r="K8" t="n">
-        <v>25.4805435147253</v>
+        <v>11.41106605529785</v>
       </c>
       <c r="L8" t="n">
-        <v>51.83860222882388</v>
+        <v>16.31374552288437</v>
       </c>
       <c r="M8" t="n">
-        <v>144.5078169051225</v>
+        <v>144.5078169051354</v>
       </c>
     </row>
     <row r="9">
@@ -13183,37 +13171,37 @@
         <v>-13.10000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>14.5521240234375</v>
+        <v>0.2999999999999995</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.725980453198381</v>
+        <v>3.221273910068808</v>
       </c>
       <c r="E9" t="n">
-        <v>3.221273910068808</v>
+        <v>0.3565105315138569</v>
       </c>
       <c r="F9" t="n">
-        <v>2.934999999999998</v>
+        <v>2.305135424803804</v>
       </c>
       <c r="G9" t="n">
-        <v>3.429501995509197</v>
+        <v>2.993730658002603</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1083691305480607</v>
+        <v>3.337621832828748</v>
       </c>
       <c r="I9" t="n">
         <v>3.386111565317465</v>
       </c>
       <c r="J9" t="n">
-        <v>11.8563500518231</v>
+        <v>12.77459805995517</v>
       </c>
       <c r="K9" t="n">
-        <v>27.38270713198401</v>
+        <v>12.85546588897705</v>
       </c>
       <c r="L9" t="n">
-        <v>52.89580238384458</v>
+        <v>19.5808507212179</v>
       </c>
       <c r="M9" t="n">
-        <v>156.9838856092229</v>
+        <v>156.9838856092383</v>
       </c>
     </row>
     <row r="10">
@@ -13224,37 +13212,37 @@
         <v>38.5</v>
       </c>
       <c r="C10" t="n">
-        <v>5.54521369934082</v>
+        <v>9.68888888888889</v>
       </c>
       <c r="D10" t="n">
-        <v>5.319803726261415</v>
+        <v>3.531279501222999</v>
       </c>
       <c r="E10" t="n">
-        <v>3.531279501222999</v>
+        <v>0.7459711859654625</v>
       </c>
       <c r="F10" t="n">
-        <v>7.090000000000003</v>
+        <v>4.259431443218332</v>
       </c>
       <c r="G10" t="n">
-        <v>4.925531138699639</v>
+        <v>7.534527491719107</v>
       </c>
       <c r="H10" t="n">
-        <v>7.338966993439765</v>
+        <v>8.501043642466534</v>
       </c>
       <c r="I10" t="n">
         <v>27.50717832543545</v>
       </c>
       <c r="J10" t="n">
-        <v>17.23458226476659</v>
+        <v>18.15283027289866</v>
       </c>
       <c r="K10" t="n">
-        <v>34.39883862290372</v>
+        <v>17.9576473236084</v>
       </c>
       <c r="L10" t="n">
-        <v>63.96062595764436</v>
+        <v>25.92319861591841</v>
       </c>
       <c r="M10" t="n">
-        <v>181.636543007972</v>
+        <v>181.6365430079913</v>
       </c>
     </row>
     <row r="11">
@@ -13265,37 +13253,37 @@
         <v>-5.099999999999994</v>
       </c>
       <c r="C11" t="n">
-        <v>12.01115989685059</v>
+        <v>9.1</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.432840196102508</v>
+        <v>3.532457192702039</v>
       </c>
       <c r="E11" t="n">
-        <v>3.532457192702039</v>
+        <v>0.7834942231479596</v>
       </c>
       <c r="F11" t="n">
-        <v>6.279999999999998</v>
+        <v>4.028204220977724</v>
       </c>
       <c r="G11" t="n">
-        <v>5.051469805760164</v>
+        <v>7.079528366206461</v>
       </c>
       <c r="H11" t="n">
-        <v>4.719291549653278</v>
+        <v>7.768661247083172</v>
       </c>
       <c r="I11" t="n">
         <v>16.04297785250718</v>
       </c>
       <c r="J11" t="n">
-        <v>13.11589220238729</v>
+        <v>14.03414021051935</v>
       </c>
       <c r="K11" t="n">
-        <v>34.50121852814608</v>
+        <v>18.53596878051758</v>
       </c>
       <c r="L11" t="n">
-        <v>65.56313933447687</v>
+        <v>26.42221982167451</v>
       </c>
       <c r="M11" t="n">
-        <v>193.070788393773</v>
+        <v>193.0707883937934</v>
       </c>
     </row>
     <row r="12">
@@ -13306,37 +13294,37 @@
         <v>10.19999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>4.028060436248779</v>
+        <v>2.244444444444443</v>
       </c>
       <c r="D12" t="n">
-        <v>6.149318560537728</v>
+        <v>1.720121298662021</v>
       </c>
       <c r="E12" t="n">
-        <v>1.720121298662021</v>
+        <v>0.7890628708755911</v>
       </c>
       <c r="F12" t="n">
-        <v>2.729999999999999</v>
+        <v>3.77328986275791</v>
       </c>
       <c r="G12" t="n">
-        <v>5.783760247593894</v>
+        <v>7.933358098418076</v>
       </c>
       <c r="H12" t="n">
-        <v>8.104250806553768</v>
+        <v>8.810685418736117</v>
       </c>
       <c r="I12" t="n">
         <v>4.789853163569622</v>
       </c>
       <c r="J12" t="n">
-        <v>13.73729346359453</v>
+        <v>14.65554147172659</v>
       </c>
       <c r="K12" t="n">
-        <v>38.91499106469547</v>
+        <v>15.46015071868896</v>
       </c>
       <c r="L12" t="n">
-        <v>76.22996411346071</v>
+        <v>27.61655312985926</v>
       </c>
       <c r="M12" t="n">
-        <v>216.7568135322505</v>
+        <v>216.7568135322712</v>
       </c>
     </row>
     <row r="13">
@@ -13347,37 +13335,37 @@
         <v>8.600000000000023</v>
       </c>
       <c r="C13" t="n">
-        <v>5.662326812744141</v>
+        <v>0.2111111111111094</v>
       </c>
       <c r="D13" t="n">
-        <v>8.795879531155014</v>
+        <v>-0.08592920740048182</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.08592920740048182</v>
+        <v>0.5765355986389751</v>
       </c>
       <c r="F13" t="n">
-        <v>2.39</v>
+        <v>2.680036347117389</v>
       </c>
       <c r="G13" t="n">
-        <v>9.941166876312057</v>
+        <v>5.771729314177447</v>
       </c>
       <c r="H13" t="n">
-        <v>9.346164642168484</v>
+        <v>7.549502650113675</v>
       </c>
       <c r="I13" t="n">
         <v>0.3338760690406671</v>
       </c>
       <c r="J13" t="n">
-        <v>-4.06692385987388</v>
+        <v>1.638012724531711</v>
       </c>
       <c r="K13" t="n">
-        <v>-10.50767109732813</v>
+        <v>8.933950424194336</v>
       </c>
       <c r="L13" t="n">
-        <v>-26.3040102246632</v>
+        <v>-6.991788617260916</v>
       </c>
       <c r="M13" t="n">
-        <v>-97.64907708145665</v>
+        <v>-97.64907708146437</v>
       </c>
     </row>
   </sheetData>
@@ -13412,52 +13400,52 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>xgboost</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>silverkite</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>knn</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>svr</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>weighted</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -13474,22 +13462,22 @@
         <v>138.7</v>
       </c>
       <c r="C2" t="n">
-        <v>111.5581639289856</v>
+        <v>119.5222222222222</v>
       </c>
       <c r="D2" t="n">
-        <v>119.6863877946788</v>
+        <v>122.3220479196292</v>
       </c>
       <c r="E2" t="n">
-        <v>122.3220479196292</v>
+        <v>118.9979777184771</v>
       </c>
       <c r="F2" t="n">
-        <v>117.385</v>
+        <v>121.6862466369987</v>
       </c>
       <c r="G2" t="n">
-        <v>124.421307478035</v>
+        <v>121.1021847474701</v>
       </c>
       <c r="H2" t="n">
-        <v>119.9309197130426</v>
+        <v>123.7387142728897</v>
       </c>
       <c r="I2" t="n">
         <v>110.7201918936255</v>
@@ -13498,13 +13486,13 @@
         <v>122.8013619470035</v>
       </c>
       <c r="K2" t="n">
-        <v>127.6965802230561</v>
+        <v>122.2357619285583</v>
       </c>
       <c r="L2" t="n">
-        <v>137.5088271759065</v>
+        <v>125.9734056460475</v>
       </c>
       <c r="M2" t="n">
-        <v>168.4187862550056</v>
+        <v>168.4187862550109</v>
       </c>
     </row>
     <row r="3">
@@ -13515,22 +13503,22 @@
         <v>122.5</v>
       </c>
       <c r="C3" t="n">
-        <v>120.7957337379456</v>
+        <v>117.9666666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>127.0520842521624</v>
+        <v>119.2603316159534</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2603316159534</v>
+        <v>118.8412596884476</v>
       </c>
       <c r="F3" t="n">
-        <v>116.925</v>
+        <v>120.7624069697131</v>
       </c>
       <c r="G3" t="n">
-        <v>129.6278832992126</v>
+        <v>120.998022339116</v>
       </c>
       <c r="H3" t="n">
-        <v>121.2957854730417</v>
+        <v>124.1856296047384</v>
       </c>
       <c r="I3" t="n">
         <v>109.6082669601137</v>
@@ -13539,13 +13527,13 @@
         <v>136.0115592199073</v>
       </c>
       <c r="K3" t="n">
-        <v>141.6906718039508</v>
+        <v>137.4016163825989</v>
       </c>
       <c r="L3" t="n">
-        <v>163.8150726434384</v>
+        <v>134.4668167098648</v>
       </c>
       <c r="M3" t="n">
-        <v>234.7652503789402</v>
+        <v>234.7652503789548</v>
       </c>
     </row>
     <row r="4">
@@ -13556,22 +13544,22 @@
         <v>126.3</v>
       </c>
       <c r="C4" t="n">
-        <v>123.8710275173187</v>
+        <v>120.6333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>122.1374505706947</v>
+        <v>124.5832091263173</v>
       </c>
       <c r="E4" t="n">
-        <v>124.5832091263173</v>
+        <v>118.164291307506</v>
       </c>
       <c r="F4" t="n">
-        <v>118.66</v>
+        <v>119.296270728159</v>
       </c>
       <c r="G4" t="n">
-        <v>133.1374012767396</v>
+        <v>114.5255832754363</v>
       </c>
       <c r="H4" t="n">
-        <v>110.552786066524</v>
+        <v>115.1413117506537</v>
       </c>
       <c r="I4" t="n">
         <v>100.9764023099086</v>
@@ -13580,13 +13568,13 @@
         <v>136.7914445443763</v>
       </c>
       <c r="K4" t="n">
-        <v>151.4864275463141</v>
+        <v>138.8658812522888</v>
       </c>
       <c r="L4" t="n">
-        <v>186.2433232629374</v>
+        <v>140.2648978805593</v>
       </c>
       <c r="M4" t="n">
-        <v>303.4551179413777</v>
+        <v>303.455117941399</v>
       </c>
     </row>
     <row r="5">
@@ -13597,22 +13585,22 @@
         <v>131.2</v>
       </c>
       <c r="C5" t="n">
-        <v>124.7134847521782</v>
+        <v>122.3555555555556</v>
       </c>
       <c r="D5" t="n">
-        <v>121.4731279347292</v>
+        <v>122.8740204590773</v>
       </c>
       <c r="E5" t="n">
-        <v>122.8740204590773</v>
+        <v>117.4314267211751</v>
       </c>
       <c r="F5" t="n">
-        <v>115.98</v>
+        <v>115.241086703662</v>
       </c>
       <c r="G5" t="n">
-        <v>136.4443964378233</v>
+        <v>108.0779621469206</v>
       </c>
       <c r="H5" t="n">
-        <v>101.1668136812821</v>
+        <v>105.4178129307334</v>
       </c>
       <c r="I5" t="n">
         <v>107.2565017823375</v>
@@ -13621,13 +13609,13 @@
         <v>146.7726382287727</v>
       </c>
       <c r="K5" t="n">
-        <v>164.5145927673586</v>
+        <v>149.9100649833679</v>
       </c>
       <c r="L5" t="n">
-        <v>215.7344357156604</v>
+        <v>148.3839994158864</v>
       </c>
       <c r="M5" t="n">
-        <v>389.2857827744287</v>
+        <v>389.2857827744569</v>
       </c>
     </row>
     <row r="6">
@@ -13638,22 +13626,22 @@
         <v>117.8</v>
       </c>
       <c r="C6" t="n">
-        <v>117.2173976778984</v>
+        <v>115.7555555555556</v>
       </c>
       <c r="D6" t="n">
-        <v>113.1228701420843</v>
+        <v>116.4009783128321</v>
       </c>
       <c r="E6" t="n">
-        <v>116.4009783128321</v>
+        <v>116.704407301051</v>
       </c>
       <c r="F6" t="n">
-        <v>110.695</v>
+        <v>109.334183781234</v>
       </c>
       <c r="G6" t="n">
-        <v>137.9236662331884</v>
+        <v>100.5123494728022</v>
       </c>
       <c r="H6" t="n">
-        <v>88.84335806746648</v>
+        <v>94.89716572981888</v>
       </c>
       <c r="I6" t="n">
         <v>83.39377374825591</v>
@@ -13662,13 +13650,13 @@
         <v>142.0902853145982</v>
       </c>
       <c r="K6" t="n">
-        <v>173.4982889515024</v>
+        <v>145.5742266654968</v>
       </c>
       <c r="L6" t="n">
-        <v>244.1557535820544</v>
+        <v>152.2502477021199</v>
       </c>
       <c r="M6" t="n">
-        <v>481.4207243708905</v>
+        <v>481.4207243709304</v>
       </c>
     </row>
     <row r="7">
@@ -13679,37 +13667,37 @@
         <v>115.1</v>
       </c>
       <c r="C7" t="n">
-        <v>103.4255952715874</v>
+        <v>111.3666666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>111.8075562180261</v>
+        <v>112.6763168913826</v>
       </c>
       <c r="E7" t="n">
-        <v>112.6763168913826</v>
+        <v>116.3271803471058</v>
       </c>
       <c r="F7" t="n">
-        <v>106.4</v>
+        <v>106.0512003681922</v>
       </c>
       <c r="G7" t="n">
-        <v>140.473675013559</v>
+        <v>96.94737762301834</v>
       </c>
       <c r="H7" t="n">
-        <v>82.59247468801121</v>
+        <v>89.15010386608819</v>
       </c>
       <c r="I7" t="n">
         <v>68.84696293340519</v>
       </c>
       <c r="J7" t="n">
-        <v>141.7785231301607</v>
+        <v>141.7785231301606</v>
       </c>
       <c r="K7" t="n">
-        <v>189.1361524263717</v>
+        <v>146.9077475547791</v>
       </c>
       <c r="L7" t="n">
-        <v>283.6888482323192</v>
+        <v>161.6207883849614</v>
       </c>
       <c r="M7" t="n">
-        <v>598.7853134653724</v>
+        <v>598.7853134654227</v>
       </c>
     </row>
     <row r="8">
@@ -13720,37 +13708,37 @@
         <v>115.2</v>
       </c>
       <c r="C8" t="n">
-        <v>115.6930475115776</v>
+        <v>114.5333333333334</v>
       </c>
       <c r="D8" t="n">
-        <v>118.9443181416075</v>
+        <v>105.605939703528</v>
       </c>
       <c r="E8" t="n">
-        <v>105.605939703528</v>
+        <v>116.4602252227886</v>
       </c>
       <c r="F8" t="n">
-        <v>106.47</v>
+        <v>104.4133404269563</v>
       </c>
       <c r="G8" t="n">
-        <v>144.3449028713268</v>
+        <v>99.3050384764137</v>
       </c>
       <c r="H8" t="n">
-        <v>85.19908002932162</v>
+        <v>91.17385635455227</v>
       </c>
       <c r="I8" t="n">
         <v>65.54098544649463</v>
       </c>
       <c r="J8" t="n">
-        <v>149.2812904034857</v>
+        <v>150.1995384116177</v>
       </c>
       <c r="K8" t="n">
-        <v>214.616695941097</v>
+        <v>158.3188136100769</v>
       </c>
       <c r="L8" t="n">
-        <v>335.5274504611431</v>
+        <v>177.9345339078458</v>
       </c>
       <c r="M8" t="n">
-        <v>743.2931303704949</v>
+        <v>743.2931303705582</v>
       </c>
     </row>
     <row r="9">
@@ -13761,37 +13749,37 @@
         <v>102.1</v>
       </c>
       <c r="C9" t="n">
-        <v>130.2451715350151</v>
+        <v>114.8333333333334</v>
       </c>
       <c r="D9" t="n">
-        <v>117.2183376884091</v>
+        <v>108.8272136135968</v>
       </c>
       <c r="E9" t="n">
-        <v>108.8272136135968</v>
+        <v>116.8167357543025</v>
       </c>
       <c r="F9" t="n">
-        <v>109.405</v>
+        <v>106.7184758517601</v>
       </c>
       <c r="G9" t="n">
-        <v>147.774404866836</v>
+        <v>102.2987691344163</v>
       </c>
       <c r="H9" t="n">
-        <v>85.09071089877357</v>
+        <v>94.51147818738102</v>
       </c>
       <c r="I9" t="n">
         <v>68.92709701181209</v>
       </c>
       <c r="J9" t="n">
-        <v>161.1376404553088</v>
+        <v>162.9741364715729</v>
       </c>
       <c r="K9" t="n">
-        <v>241.999403073081</v>
+        <v>171.174279499054</v>
       </c>
       <c r="L9" t="n">
-        <v>388.4232528449876</v>
+        <v>197.5153846290637</v>
       </c>
       <c r="M9" t="n">
-        <v>900.2770159797178</v>
+        <v>900.2770159797965</v>
       </c>
     </row>
     <row r="10">
@@ -13802,37 +13790,37 @@
         <v>140.6</v>
       </c>
       <c r="C10" t="n">
-        <v>135.7903852343559</v>
+        <v>124.5222222222222</v>
       </c>
       <c r="D10" t="n">
-        <v>122.5381414146705</v>
+        <v>112.3584931148198</v>
       </c>
       <c r="E10" t="n">
-        <v>112.3584931148198</v>
+        <v>117.5627069402679</v>
       </c>
       <c r="F10" t="n">
-        <v>116.495</v>
+        <v>110.9779072949785</v>
       </c>
       <c r="G10" t="n">
-        <v>152.6999360055356</v>
+        <v>109.8332966261354</v>
       </c>
       <c r="H10" t="n">
-        <v>92.42967789221333</v>
+        <v>103.0125218298475</v>
       </c>
       <c r="I10" t="n">
         <v>96.43427533724754</v>
       </c>
       <c r="J10" t="n">
-        <v>178.3722227200754</v>
+        <v>181.1269667444716</v>
       </c>
       <c r="K10" t="n">
-        <v>276.3982416959848</v>
+        <v>189.1319268226624</v>
       </c>
       <c r="L10" t="n">
-        <v>452.383878802632</v>
+        <v>223.4385832449821</v>
       </c>
       <c r="M10" t="n">
-        <v>1081.91355898769</v>
+        <v>1081.913558987788</v>
       </c>
     </row>
     <row r="11">
@@ -13843,37 +13831,37 @@
         <v>135.5</v>
       </c>
       <c r="C11" t="n">
-        <v>147.8015451312065</v>
+        <v>133.6222222222222</v>
       </c>
       <c r="D11" t="n">
-        <v>121.105301218568</v>
+        <v>115.8909503075219</v>
       </c>
       <c r="E11" t="n">
-        <v>115.8909503075219</v>
+        <v>118.3462011634159</v>
       </c>
       <c r="F11" t="n">
-        <v>122.775</v>
+        <v>115.0061115159562</v>
       </c>
       <c r="G11" t="n">
-        <v>157.7514058112958</v>
+        <v>116.9128249923419</v>
       </c>
       <c r="H11" t="n">
-        <v>97.14896944186661</v>
+        <v>110.7811830769307</v>
       </c>
       <c r="I11" t="n">
         <v>112.4772531897547</v>
       </c>
       <c r="J11" t="n">
-        <v>191.4881149224627</v>
+        <v>195.1611069549909</v>
       </c>
       <c r="K11" t="n">
-        <v>310.8994602241308</v>
+        <v>207.6678956031799</v>
       </c>
       <c r="L11" t="n">
-        <v>517.9470181371089</v>
+        <v>249.8608030666566</v>
       </c>
       <c r="M11" t="n">
-        <v>1274.984347381463</v>
+        <v>1274.984347381581</v>
       </c>
     </row>
     <row r="12">
@@ -13884,37 +13872,37 @@
         <v>145.7</v>
       </c>
       <c r="C12" t="n">
-        <v>151.8296055674553</v>
+        <v>135.8666666666667</v>
       </c>
       <c r="D12" t="n">
-        <v>127.2546197791057</v>
+        <v>117.6110716061839</v>
       </c>
       <c r="E12" t="n">
-        <v>117.6110716061839</v>
+        <v>119.1352640342915</v>
       </c>
       <c r="F12" t="n">
-        <v>125.505</v>
+        <v>118.7794013787141</v>
       </c>
       <c r="G12" t="n">
-        <v>163.5351660588897</v>
+        <v>124.84618309076</v>
       </c>
       <c r="H12" t="n">
-        <v>105.2532202484204</v>
+        <v>119.5918684956668</v>
       </c>
       <c r="I12" t="n">
         <v>117.2671063533243</v>
       </c>
       <c r="J12" t="n">
-        <v>205.2254083860572</v>
+        <v>209.8166484267175</v>
       </c>
       <c r="K12" t="n">
-        <v>349.8144512888263</v>
+        <v>223.1280463218689</v>
       </c>
       <c r="L12" t="n">
-        <v>594.1769822505696</v>
+        <v>277.4773561965159</v>
       </c>
       <c r="M12" t="n">
-        <v>1491.741160913713</v>
+        <v>1491.741160913853</v>
       </c>
     </row>
     <row r="13">
@@ -13925,37 +13913,37 @@
         <v>154.3</v>
       </c>
       <c r="C13" t="n">
-        <v>157.4919323801994</v>
+        <v>136.0777777777778</v>
       </c>
       <c r="D13" t="n">
-        <v>136.0504993102607</v>
+        <v>117.5251423987834</v>
       </c>
       <c r="E13" t="n">
-        <v>117.5251423987834</v>
+        <v>119.7117996329304</v>
       </c>
       <c r="F13" t="n">
-        <v>127.895</v>
+        <v>121.4594377258315</v>
       </c>
       <c r="G13" t="n">
-        <v>173.4763329352018</v>
+        <v>130.6179124049374</v>
       </c>
       <c r="H13" t="n">
-        <v>114.5993848905889</v>
+        <v>127.1413711457805</v>
       </c>
       <c r="I13" t="n">
         <v>117.600982422365</v>
       </c>
       <c r="J13" t="n">
-        <v>201.1584845261833</v>
+        <v>211.4546611512492</v>
       </c>
       <c r="K13" t="n">
-        <v>339.3067801914982</v>
+        <v>232.0619967460632</v>
       </c>
       <c r="L13" t="n">
-        <v>567.8729720259064</v>
+        <v>270.485567579255</v>
       </c>
       <c r="M13" t="n">
-        <v>1394.092083832257</v>
+        <v>1394.092083832388</v>
       </c>
     </row>
   </sheetData>
@@ -13985,52 +13973,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>xgboost</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>silverkite</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>knn</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>svr</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>weighted</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -14044,22 +14032,22 @@
         <v>44378</v>
       </c>
       <c r="B2" t="n">
-        <v>165.1073768615723</v>
+        <v>156.2333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>158.7992090473758</v>
+        <v>157.8220479196293</v>
       </c>
       <c r="D2" t="n">
-        <v>157.8220479196293</v>
+        <v>154.4829349254608</v>
       </c>
       <c r="E2" t="n">
-        <v>152.14</v>
+        <v>156.0312727570492</v>
       </c>
       <c r="F2" t="n">
-        <v>155.8802695345476</v>
+        <v>155.7827436835106</v>
       </c>
       <c r="G2" t="n">
-        <v>156.4329231866341</v>
+        <v>155.7888354260576</v>
       </c>
       <c r="H2" t="n">
         <v>148.5055401380118</v>
@@ -14068,10 +14056,10 @@
         <v>153.5042054109117</v>
       </c>
       <c r="J2" t="n">
-        <v>156.9709990407486</v>
+        <v>157.6804776668549</v>
       </c>
       <c r="K2" t="n">
-        <v>157.5821544236146</v>
+        <v>156.0196656214688</v>
       </c>
       <c r="L2" t="n">
         <v>158.0669846889203</v>
@@ -14082,22 +14070,22 @@
         <v>44409</v>
       </c>
       <c r="B3" t="n">
-        <v>165.5584989964962</v>
+        <v>151.9</v>
       </c>
       <c r="C3" t="n">
-        <v>154.4029773424122</v>
+        <v>154.7603316159534</v>
       </c>
       <c r="D3" t="n">
-        <v>154.7603316159534</v>
+        <v>154.2126089521852</v>
       </c>
       <c r="E3" t="n">
-        <v>149.335</v>
+        <v>153.7498761667848</v>
       </c>
       <c r="F3" t="n">
-        <v>153.6669665590815</v>
+        <v>152.2880811434019</v>
       </c>
       <c r="G3" t="n">
-        <v>153.2288846617579</v>
+        <v>152.2766879322158</v>
       </c>
       <c r="H3" t="n">
         <v>146.5031239057099</v>
@@ -14106,10 +14094,10 @@
         <v>150.7558149697058</v>
       </c>
       <c r="J3" t="n">
-        <v>154.0012827156193</v>
+        <v>159.5764703035355</v>
       </c>
       <c r="K3" t="n">
-        <v>154.152287004368</v>
+        <v>153.6069383063574</v>
       </c>
       <c r="L3" t="n">
         <v>154.3869171116105</v>
@@ -14120,22 +14108,22 @@
         <v>44440</v>
       </c>
       <c r="B4" t="n">
-        <v>170.2978927075863</v>
+        <v>153.0555555555556</v>
       </c>
       <c r="C4" t="n">
-        <v>152.7763478640812</v>
+        <v>160.0832091263173</v>
       </c>
       <c r="D4" t="n">
-        <v>160.0832091263173</v>
+        <v>153.6581618432003</v>
       </c>
       <c r="E4" t="n">
-        <v>147.385</v>
+        <v>152.8756259722362</v>
       </c>
       <c r="F4" t="n">
-        <v>149.5862896993246</v>
+        <v>146.2916067907757</v>
       </c>
       <c r="G4" t="n">
-        <v>147.2990995565332</v>
+        <v>144.8855069471908</v>
       </c>
       <c r="H4" t="n">
         <v>139.4780515071026</v>
@@ -14144,10 +14132,10 @@
         <v>148.5383933181722</v>
       </c>
       <c r="J4" t="n">
-        <v>151.7335262773766</v>
+        <v>163.0785543203354</v>
       </c>
       <c r="K4" t="n">
-        <v>150.3433691332899</v>
+        <v>151.9780641220077</v>
       </c>
       <c r="L4" t="n">
         <v>148.6674698364639</v>
@@ -14158,22 +14146,22 @@
         <v>44470</v>
       </c>
       <c r="B5" t="n">
-        <v>178.3332225263119</v>
+        <v>152.5</v>
       </c>
       <c r="C5" t="n">
-        <v>154.2175198679189</v>
+        <v>158.3740204590774</v>
       </c>
       <c r="D5" t="n">
-        <v>158.3740204590774</v>
+        <v>153.0670682989847</v>
       </c>
       <c r="E5" t="n">
-        <v>146.015</v>
+        <v>149.5373753371533</v>
       </c>
       <c r="F5" t="n">
-        <v>145.7565794100106</v>
+        <v>140.3745447770864</v>
       </c>
       <c r="G5" t="n">
-        <v>142.2509652555254</v>
+        <v>137.1710372533977</v>
       </c>
       <c r="H5" t="n">
         <v>144.3088045227086</v>
@@ -14182,13 +14170,13 @@
         <v>149.2043911400013</v>
       </c>
       <c r="J5" t="n">
-        <v>150.1702719434766</v>
+        <v>166.3813022851944</v>
       </c>
       <c r="K5" t="n">
-        <v>147.7105617525475</v>
+        <v>149.5112436722088</v>
       </c>
       <c r="L5" t="n">
-        <v>143.1575859797131</v>
+        <v>143.157585979713</v>
       </c>
     </row>
     <row r="6">
@@ -14196,37 +14184,37 @@
         <v>44501</v>
       </c>
       <c r="B6" t="n">
-        <v>176.8225585401058</v>
+        <v>142.3777777777778</v>
       </c>
       <c r="C6" t="n">
-        <v>144.1350916144025</v>
+        <v>151.9009783128321</v>
       </c>
       <c r="D6" t="n">
-        <v>151.9009783128321</v>
+        <v>152.3912689279172</v>
       </c>
       <c r="E6" t="n">
-        <v>139.04</v>
+        <v>143.638311134573</v>
       </c>
       <c r="F6" t="n">
-        <v>134.6056226616592</v>
+        <v>131.9098722817563</v>
       </c>
       <c r="G6" t="n">
-        <v>130.7345419744258</v>
+        <v>126.6226861629697</v>
       </c>
       <c r="H6" t="n">
         <v>122.5985977311986</v>
       </c>
       <c r="I6" t="n">
-        <v>138.9312561038809</v>
+        <v>138.931256103881</v>
       </c>
       <c r="J6" t="n">
-        <v>140.0400341376927</v>
+        <v>160.7492908716202</v>
       </c>
       <c r="K6" t="n">
-        <v>135.6885571495229</v>
+        <v>141.4719288200968</v>
       </c>
       <c r="L6" t="n">
-        <v>128.3249571725071</v>
+        <v>128.324957172507</v>
       </c>
     </row>
     <row r="7">
@@ -14234,22 +14222,22 @@
         <v>44531</v>
       </c>
       <c r="B7" t="n">
-        <v>170.3596302449703</v>
+        <v>134.8444444444445</v>
       </c>
       <c r="C7" t="n">
-        <v>145.4080760158442</v>
+        <v>148.1763168913826</v>
       </c>
       <c r="D7" t="n">
-        <v>148.1763168913826</v>
+        <v>152.1247543370455</v>
       </c>
       <c r="E7" t="n">
-        <v>135.38</v>
+        <v>140.6774936134265</v>
       </c>
       <c r="F7" t="n">
-        <v>130.609724761436</v>
+        <v>128.6019709344622</v>
       </c>
       <c r="G7" t="n">
-        <v>127.8367837142309</v>
+        <v>121.7314096118514</v>
       </c>
       <c r="H7" t="n">
         <v>107.5874561757163</v>
@@ -14258,13 +14246,13 @@
         <v>132.6278105949604</v>
       </c>
       <c r="J7" t="n">
-        <v>136.57957501514</v>
+        <v>157.090095448494</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2778906705803</v>
+        <v>137.3516133615913</v>
       </c>
       <c r="L7" t="n">
-        <v>123.8158712344606</v>
+        <v>123.8158712344605</v>
       </c>
     </row>
     <row r="8">
@@ -14272,22 +14260,22 @@
         <v>44562</v>
       </c>
       <c r="B8" t="n">
-        <v>170.5023215442896</v>
+        <v>136.0333333333334</v>
       </c>
       <c r="C8" t="n">
-        <v>146.3485760593025</v>
+        <v>141.1059397035281</v>
       </c>
       <c r="D8" t="n">
-        <v>141.1059397035281</v>
+        <v>152.2302680683478</v>
       </c>
       <c r="E8" t="n">
-        <v>134.525</v>
+        <v>138.2898586714186</v>
       </c>
       <c r="F8" t="n">
-        <v>128.6765892753957</v>
+        <v>128.6521872686355</v>
       </c>
       <c r="G8" t="n">
-        <v>127.6892545389978</v>
+        <v>121.5333682423802</v>
       </c>
       <c r="H8" t="n">
         <v>103.5476289921068</v>
@@ -14296,13 +14284,13 @@
         <v>129.1499820224038</v>
       </c>
       <c r="J8" t="n">
-        <v>135.1378095869767</v>
+        <v>160.2487837553024</v>
       </c>
       <c r="K8" t="n">
-        <v>132.6860296902832</v>
+        <v>136.3746254796433</v>
       </c>
       <c r="L8" t="n">
-        <v>123.0329237361516</v>
+        <v>123.0329237361515</v>
       </c>
     </row>
     <row r="9">
@@ -14310,37 +14298,37 @@
         <v>44593</v>
       </c>
       <c r="B9" t="n">
-        <v>176.468736949563</v>
+        <v>135.7888888888889</v>
       </c>
       <c r="C9" t="n">
-        <v>140.1731985490464</v>
+        <v>144.3272136135969</v>
       </c>
       <c r="D9" t="n">
-        <v>144.3272136135969</v>
+        <v>152.5843713444252</v>
       </c>
       <c r="E9" t="n">
-        <v>136.91</v>
+        <v>140.0880108547367</v>
       </c>
       <c r="F9" t="n">
-        <v>124.6562138372123</v>
+        <v>129.9371495826001</v>
       </c>
       <c r="G9" t="n">
-        <v>126.5980466137695</v>
+        <v>123.3524476061881</v>
       </c>
       <c r="H9" t="n">
         <v>106.3198554387913</v>
       </c>
       <c r="I9" t="n">
-        <v>131.992387048554</v>
+        <v>131.9923870485541</v>
       </c>
       <c r="J9" t="n">
-        <v>134.0299681551326</v>
+        <v>166.9075404882431</v>
       </c>
       <c r="K9" t="n">
-        <v>128.2909278410269</v>
+        <v>137.8633021215232</v>
       </c>
       <c r="L9" t="n">
-        <v>120.0433711368219</v>
+        <v>120.0433711368218</v>
       </c>
     </row>
     <row r="10">
@@ -14348,22 +14336,22 @@
         <v>44621</v>
       </c>
       <c r="B10" t="n">
-        <v>196.0266955524683</v>
+        <v>147.6111111111111</v>
       </c>
       <c r="C10" t="n">
-        <v>155.3282959238043</v>
+        <v>147.8584931148199</v>
       </c>
       <c r="D10" t="n">
-        <v>147.8584931148199</v>
+        <v>153.4976076391647</v>
       </c>
       <c r="E10" t="n">
-        <v>147.385</v>
+        <v>145.4051686475395</v>
       </c>
       <c r="F10" t="n">
-        <v>139.1754065000975</v>
+        <v>138.9310644740486</v>
       </c>
       <c r="G10" t="n">
-        <v>139.9468243540186</v>
+        <v>134.8594051886341</v>
       </c>
       <c r="H10" t="n">
         <v>136.0148467802387</v>
@@ -14372,13 +14360,13 @@
         <v>150.7698456603823</v>
       </c>
       <c r="J10" t="n">
-        <v>148.3826851940573</v>
+        <v>179.634783911705</v>
       </c>
       <c r="K10" t="n">
-        <v>144.0990430153252</v>
+        <v>147.6374168568428</v>
       </c>
       <c r="L10" t="n">
-        <v>137.7934266220738</v>
+        <v>137.7934266220736</v>
       </c>
     </row>
     <row r="11">
@@ -14386,22 +14374,22 @@
         <v>44652</v>
       </c>
       <c r="B11" t="n">
-        <v>204.4815018802881</v>
+        <v>155.6888888888889</v>
       </c>
       <c r="C11" t="n">
-        <v>145.517811401481</v>
+        <v>151.3909503075219</v>
       </c>
       <c r="D11" t="n">
-        <v>151.3909503075219</v>
+        <v>154.188179796974</v>
       </c>
       <c r="E11" t="n">
-        <v>154.95</v>
+        <v>148.6342513935579</v>
       </c>
       <c r="F11" t="n">
-        <v>136.9738526779404</v>
+        <v>142.7525479761617</v>
       </c>
       <c r="G11" t="n">
-        <v>140.1011938525688</v>
+        <v>140.3236240761777</v>
       </c>
       <c r="H11" t="n">
         <v>150.9218202608018</v>
@@ -14410,13 +14398,13 @@
         <v>152.8174653569</v>
       </c>
       <c r="J11" t="n">
-        <v>148.1313658507482</v>
+        <v>183.9038063764572</v>
       </c>
       <c r="K11" t="n">
-        <v>139.494635572025</v>
+        <v>151.1223609968247</v>
       </c>
       <c r="L11" t="n">
-        <v>135.9922426366537</v>
+        <v>135.9922426366536</v>
       </c>
     </row>
     <row r="12">
@@ -14424,22 +14412,22 @@
         <v>44682</v>
       </c>
       <c r="B12" t="n">
-        <v>218.4263384968042</v>
+        <v>155.9222222222222</v>
       </c>
       <c r="C12" t="n">
-        <v>154.4316603895961</v>
+        <v>153.1110716061839</v>
       </c>
       <c r="D12" t="n">
-        <v>153.1110716061839</v>
+        <v>155.0651516864054</v>
       </c>
       <c r="E12" t="n">
-        <v>158.165</v>
+        <v>152.8265879527568</v>
       </c>
       <c r="F12" t="n">
-        <v>149.4102194785826</v>
+        <v>150.9067314288149</v>
       </c>
       <c r="G12" t="n">
-        <v>151.6047856001314</v>
+        <v>150.3035405656811</v>
       </c>
       <c r="H12" t="n">
         <v>156.7873180776919</v>
@@ -14448,13 +14436,13 @@
         <v>158.3125390725373</v>
       </c>
       <c r="J12" t="n">
-        <v>157.4356729075079</v>
+        <v>192.3229471921921</v>
       </c>
       <c r="K12" t="n">
-        <v>151.1831970851158</v>
+        <v>156.768447298221</v>
       </c>
       <c r="L12" t="n">
-        <v>149.7077113871686</v>
+        <v>149.7077113871685</v>
       </c>
     </row>
     <row r="13">
@@ -14462,22 +14450,22 @@
         <v>44713</v>
       </c>
       <c r="B13" t="n">
-        <v>221.9609513908625</v>
+        <v>156.0888888888889</v>
       </c>
       <c r="C13" t="n">
-        <v>165.0735337264939</v>
+        <v>153.0251423987834</v>
       </c>
       <c r="D13" t="n">
-        <v>153.0251423987834</v>
+        <v>155.7600702125228</v>
       </c>
       <c r="E13" t="n">
-        <v>160.39</v>
+        <v>155.881990740136</v>
       </c>
       <c r="F13" t="n">
-        <v>158.5976133084345</v>
+        <v>157.9429787561425</v>
       </c>
       <c r="G13" t="n">
-        <v>162.3119232134116</v>
+        <v>158.8607596091017</v>
       </c>
       <c r="H13" t="n">
         <v>155.2175788909178</v>
@@ -14486,13 +14474,13 @@
         <v>157.7660190763039</v>
       </c>
       <c r="J13" t="n">
-        <v>164.5615310093557</v>
+        <v>199.7237817525864</v>
       </c>
       <c r="K13" t="n">
-        <v>161.8256730044036</v>
+        <v>160.9393718485247</v>
       </c>
       <c r="L13" t="n">
-        <v>161.8058719782826</v>
+        <v>161.8058719782825</v>
       </c>
     </row>
     <row r="14">
@@ -14500,37 +14488,37 @@
         <v>44743</v>
       </c>
       <c r="B14" t="n">
-        <v>228.3582449585199</v>
+        <v>157.7888888888889</v>
       </c>
       <c r="C14" t="n">
-        <v>171.7645794638347</v>
+        <v>156.5610566858272</v>
       </c>
       <c r="D14" t="n">
-        <v>156.5610566858272</v>
+        <v>156.0265099393303</v>
       </c>
       <c r="E14" t="n">
-        <v>159.22</v>
+        <v>158.2386812272041</v>
       </c>
       <c r="F14" t="n">
-        <v>162.1714564859708</v>
+        <v>160.5797369209502</v>
       </c>
       <c r="G14" t="n">
-        <v>166.9241337019853</v>
+        <v>162.1284770564549</v>
       </c>
       <c r="H14" t="n">
         <v>150.6604362021833</v>
       </c>
       <c r="I14" t="n">
-        <v>156.9248765110788</v>
+        <v>156.9248765110789</v>
       </c>
       <c r="J14" t="n">
-        <v>168.3351242005373</v>
+        <v>202.9496986150742</v>
       </c>
       <c r="K14" t="n">
-        <v>167.0033143181902</v>
+        <v>163.2178835954888</v>
       </c>
       <c r="L14" t="n">
-        <v>167.0739070047651</v>
+        <v>167.0739070047649</v>
       </c>
     </row>
     <row r="15">
@@ -14538,22 +14526,22 @@
         <v>44774</v>
       </c>
       <c r="B15" t="n">
-        <v>235.4831023842096</v>
+        <v>154.3111111111111</v>
       </c>
       <c r="C15" t="n">
-        <v>165.3232734144235</v>
+        <v>156.6833277373912</v>
       </c>
       <c r="D15" t="n">
-        <v>156.6833277373912</v>
+        <v>155.7175641069931</v>
       </c>
       <c r="E15" t="n">
-        <v>156.5</v>
+        <v>156.3833416353671</v>
       </c>
       <c r="F15" t="n">
-        <v>158.0529748937293</v>
+        <v>155.7804621835373</v>
       </c>
       <c r="G15" t="n">
-        <v>160.9027495310272</v>
+        <v>156.7491330617171</v>
       </c>
       <c r="H15" t="n">
         <v>148.4338240526654</v>
@@ -14562,13 +14550,13 @@
         <v>152.1980008704368</v>
       </c>
       <c r="J15" t="n">
-        <v>164.539299564528</v>
+        <v>202.5896687686443</v>
       </c>
       <c r="K15" t="n">
-        <v>161.4013133461642</v>
+        <v>160.2867016700511</v>
       </c>
       <c r="L15" t="n">
-        <v>160.8276917303399</v>
+        <v>160.8276917303397</v>
       </c>
     </row>
     <row r="16">
@@ -14576,37 +14564,37 @@
         <v>44805</v>
       </c>
       <c r="B16" t="n">
-        <v>243.3575387626886</v>
+        <v>155.6</v>
       </c>
       <c r="C16" t="n">
-        <v>165.4144051156462</v>
+        <v>160.2215974073929</v>
       </c>
       <c r="D16" t="n">
-        <v>160.2215974073929</v>
+        <v>155.2436903861643</v>
       </c>
       <c r="E16" t="n">
-        <v>156.055</v>
+        <v>154.8951306200643</v>
       </c>
       <c r="F16" t="n">
-        <v>154.395544669755</v>
+        <v>150.079653726873</v>
       </c>
       <c r="G16" t="n">
-        <v>155.0895191664923</v>
+        <v>149.2201040666356</v>
       </c>
       <c r="H16" t="n">
         <v>142.6592510652843</v>
       </c>
       <c r="I16" t="n">
-        <v>149.8806773747783</v>
+        <v>149.8806773747784</v>
       </c>
       <c r="J16" t="n">
-        <v>162.623477256849</v>
+        <v>206.0917527854443</v>
       </c>
       <c r="K16" t="n">
-        <v>157.8285399963206</v>
+        <v>158.321835638135</v>
       </c>
       <c r="L16" t="n">
-        <v>153.6756702035603</v>
+        <v>153.6756702035601</v>
       </c>
     </row>
     <row r="17">
@@ -14614,22 +14602,22 @@
         <v>44835</v>
       </c>
       <c r="B17" t="n">
-        <v>250.589349809289</v>
+        <v>153.6</v>
       </c>
       <c r="C17" t="n">
-        <v>166.0340388294437</v>
+        <v>158.5262751075675</v>
       </c>
       <c r="D17" t="n">
-        <v>158.5262751075675</v>
+        <v>154.661033975012</v>
       </c>
       <c r="E17" t="n">
-        <v>154.685</v>
+        <v>151.1353305019249</v>
       </c>
       <c r="F17" t="n">
-        <v>149.1678979755925</v>
+        <v>143.3556746454981</v>
       </c>
       <c r="G17" t="n">
-        <v>148.077855981035</v>
+        <v>140.2186824231951</v>
       </c>
       <c r="H17" t="n">
         <v>146.0287304882584</v>
@@ -14638,13 +14626,13 @@
         <v>150.5466751966075</v>
       </c>
       <c r="J17" t="n">
-        <v>159.8564118897545</v>
+        <v>208.6249351680279</v>
       </c>
       <c r="K17" t="n">
-        <v>153.4263114557703</v>
+        <v>154.9838325338902</v>
       </c>
       <c r="L17" t="n">
-        <v>145.0769975622746</v>
+        <v>145.0769975622744</v>
       </c>
     </row>
     <row r="18">
@@ -14652,22 +14640,22 @@
         <v>44866</v>
       </c>
       <c r="B18" t="n">
-        <v>249.0162912040949</v>
+        <v>144.1333333333333</v>
       </c>
       <c r="C18" t="n">
-        <v>156.6569818433282</v>
+        <v>152.0670993287367</v>
       </c>
       <c r="D18" t="n">
-        <v>152.0670993287367</v>
+        <v>154.0511771537961</v>
       </c>
       <c r="E18" t="n">
-        <v>147.71</v>
+        <v>145.3195210587545</v>
       </c>
       <c r="F18" t="n">
-        <v>138.3720945258295</v>
+        <v>135.24403506868</v>
       </c>
       <c r="G18" t="n">
-        <v>136.7525286194038</v>
+        <v>129.8402866937306</v>
       </c>
       <c r="H18" t="n">
         <v>126.2165811321934</v>
@@ -14676,13 +14664,13 @@
         <v>142.7359409384903</v>
       </c>
       <c r="J18" t="n">
-        <v>150.1469165327743</v>
+        <v>204.493054407835</v>
       </c>
       <c r="K18" t="n">
-        <v>141.7353926451366</v>
+        <v>147.4500581810154</v>
       </c>
       <c r="L18" t="n">
-        <v>130.1771015662519</v>
+        <v>130.1771015662517</v>
       </c>
     </row>
     <row r="19">
@@ -14690,22 +14678,22 @@
         <v>44896</v>
       </c>
       <c r="B19" t="n">
-        <v>245.497614684701</v>
+        <v>136.6</v>
       </c>
       <c r="C19" t="n">
-        <v>157.2379678810412</v>
+        <v>148.3563042747017</v>
       </c>
       <c r="D19" t="n">
-        <v>148.3563042747017</v>
+        <v>153.7559056674021</v>
       </c>
       <c r="E19" t="n">
-        <v>143.02</v>
+        <v>142.0356218871295</v>
       </c>
       <c r="F19" t="n">
-        <v>132.7653227960875</v>
+        <v>131.1356439006925</v>
       </c>
       <c r="G19" t="n">
-        <v>132.6340614444936</v>
+        <v>123.9946557192847</v>
       </c>
       <c r="H19" t="n">
         <v>109.9740225775157</v>
@@ -14714,13 +14702,13 @@
         <v>136.4324954295697</v>
       </c>
       <c r="J19" t="n">
-        <v>146.0170871035891</v>
+        <v>200.6714110553265</v>
       </c>
       <c r="K19" t="n">
-        <v>138.1337307044384</v>
+        <v>142.9156139577011</v>
       </c>
       <c r="L19" t="n">
-        <v>124.3979014361865</v>
+        <v>124.3979014361863</v>
       </c>
     </row>
     <row r="20">
@@ -14728,22 +14716,22 @@
         <v>44927</v>
       </c>
       <c r="B20" t="n">
-        <v>248.3329167991877</v>
+        <v>137.7888888888889</v>
       </c>
       <c r="C20" t="n">
-        <v>156.9602196007386</v>
+        <v>148.5523152726401</v>
       </c>
       <c r="D20" t="n">
-        <v>148.5523152726401</v>
+        <v>153.8342323849369</v>
       </c>
       <c r="E20" t="n">
-        <v>142.285</v>
+        <v>141.8967775328906</v>
       </c>
       <c r="F20" t="n">
-        <v>129.5732430346916</v>
+        <v>130.7351858841903</v>
       </c>
       <c r="G20" t="n">
-        <v>131.7596455691414</v>
+        <v>123.3037849410947</v>
       </c>
       <c r="H20" t="n">
         <v>104.7870413243681</v>
@@ -14752,13 +14740,13 @@
         <v>132.9546668570131</v>
       </c>
       <c r="J20" t="n">
-        <v>144.93953605494</v>
+        <v>204.3550119578838</v>
       </c>
       <c r="K20" t="n">
-        <v>136.6049443974773</v>
+        <v>142.8285395246899</v>
       </c>
       <c r="L20" t="n">
-        <v>123.2813705570015</v>
+        <v>123.2813705570013</v>
       </c>
     </row>
     <row r="21">
@@ -14766,22 +14754,22 @@
         <v>44958</v>
       </c>
       <c r="B21" t="n">
-        <v>258.1275230079889</v>
+        <v>138.6888888888889</v>
       </c>
       <c r="C21" t="n">
-        <v>150.1107340855679</v>
+        <v>152.0963974199417</v>
       </c>
       <c r="D21" t="n">
-        <v>152.0963974199417</v>
+        <v>154.203383688048</v>
       </c>
       <c r="E21" t="n">
-        <v>146.13</v>
+        <v>144.1028014708303</v>
       </c>
       <c r="F21" t="n">
-        <v>126.5284530373973</v>
+        <v>132.4446187478776</v>
       </c>
       <c r="G21" t="n">
-        <v>131.4256433507084</v>
+        <v>126.0086233045012</v>
       </c>
       <c r="H21" t="n">
         <v>107.440831005835</v>
@@ -14790,13 +14778,13 @@
         <v>138.1516320855605</v>
       </c>
       <c r="J21" t="n">
-        <v>144.849479558044</v>
+        <v>211.6178002536297</v>
       </c>
       <c r="K21" t="n">
-        <v>132.8429420767565</v>
+        <v>145.0755343806927</v>
       </c>
       <c r="L21" t="n">
-        <v>121.8896391073041</v>
+        <v>121.8896391073038</v>
       </c>
     </row>
     <row r="22">
@@ -14804,22 +14792,22 @@
         <v>44986</v>
       </c>
       <c r="B22" t="n">
-        <v>275.5566001564264</v>
+        <v>149.3444444444445</v>
       </c>
       <c r="C22" t="n">
-        <v>169.9909621703721</v>
+        <v>155.6415432885792</v>
       </c>
       <c r="D22" t="n">
-        <v>155.6415432885792</v>
+        <v>155.1503712924139</v>
       </c>
       <c r="E22" t="n">
-        <v>154.65</v>
+        <v>149.9666266691403</v>
       </c>
       <c r="F22" t="n">
-        <v>142.6407895794378</v>
+        <v>142.9174798006438</v>
       </c>
       <c r="G22" t="n">
-        <v>148.2783783044231</v>
+        <v>139.1079654264277</v>
       </c>
       <c r="H22" t="n">
         <v>138.9361858217326</v>
@@ -14828,13 +14816,13 @@
         <v>157.0100042698673</v>
       </c>
       <c r="J22" t="n">
-        <v>160.9300785373795</v>
+        <v>227.5705485522747</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7177218305607</v>
+        <v>155.7755030253077</v>
       </c>
       <c r="L22" t="n">
-        <v>142.521413741872</v>
+        <v>142.5214137418717</v>
       </c>
     </row>
     <row r="23">
@@ -14842,22 +14830,22 @@
         <v>45017</v>
       </c>
       <c r="B23" t="n">
-        <v>285.8093209892511</v>
+        <v>159.2777777777778</v>
       </c>
       <c r="C23" t="n">
-        <v>162.5441278968059</v>
+        <v>152.6029249339115</v>
       </c>
       <c r="D23" t="n">
-        <v>152.6029249339115</v>
+        <v>155.9600200270807</v>
       </c>
       <c r="E23" t="n">
-        <v>161.845</v>
+        <v>152.1019386321373</v>
       </c>
       <c r="F23" t="n">
-        <v>145.0016501493731</v>
+        <v>149.2170833773084</v>
       </c>
       <c r="G23" t="n">
-        <v>152.3066927098762</v>
+        <v>147.7428709354197</v>
       </c>
       <c r="H23" t="n">
         <v>152.885124181462</v>
@@ -14866,13 +14854,13 @@
         <v>162.9431532420033</v>
       </c>
       <c r="J23" t="n">
-        <v>162.6559474507665</v>
+        <v>235.8933549106121</v>
       </c>
       <c r="K23" t="n">
-        <v>150.6821192648767</v>
+        <v>160.389983126616</v>
       </c>
       <c r="L23" t="n">
-        <v>144.500579748451</v>
+        <v>144.5005797484507</v>
       </c>
     </row>
     <row r="24">
@@ -14880,22 +14868,22 @@
         <v>45047</v>
       </c>
       <c r="B24" t="n">
-        <v>299.6270118385553</v>
+        <v>160.7111111111111</v>
       </c>
       <c r="C24" t="n">
-        <v>171.0071566779579</v>
+        <v>156.1568233442879</v>
       </c>
       <c r="D24" t="n">
-        <v>156.1568233442879</v>
+        <v>156.7805853976646</v>
       </c>
       <c r="E24" t="n">
-        <v>164.025</v>
+        <v>156.8411626743477</v>
       </c>
       <c r="F24" t="n">
-        <v>157.3138949409713</v>
+        <v>157.0763052910096</v>
       </c>
       <c r="G24" t="n">
-        <v>163.5193544954819</v>
+        <v>157.5860792810907</v>
       </c>
       <c r="H24" t="n">
         <v>159.5765474204187</v>
@@ -14904,13 +14892,13 @@
         <v>168.0852176257274</v>
       </c>
       <c r="J24" t="n">
-        <v>171.8816012099633</v>
+        <v>244.312495726347</v>
       </c>
       <c r="K24" t="n">
-        <v>162.1697017098093</v>
+        <v>166.3524641300172</v>
       </c>
       <c r="L24" t="n">
-        <v>158.1880535104987</v>
+        <v>158.1880535104983</v>
       </c>
     </row>
     <row r="25">
@@ -14918,22 +14906,22 @@
         <v>45078</v>
       </c>
       <c r="B25" t="n">
-        <v>304.2418904930353</v>
+        <v>162.5555555555556</v>
       </c>
       <c r="C25" t="n">
-        <v>177.7519649006346</v>
+        <v>159.7054642973147</v>
       </c>
       <c r="D25" t="n">
-        <v>159.7054642973147</v>
+        <v>157.3403690609455</v>
       </c>
       <c r="E25" t="n">
-        <v>165.805</v>
+        <v>160.3972696507769</v>
       </c>
       <c r="F25" t="n">
-        <v>163.672599484132</v>
+        <v>162.3078993100053</v>
       </c>
       <c r="G25" t="n">
-        <v>171.2083571451774</v>
+        <v>164.1459755940706</v>
       </c>
       <c r="H25" t="n">
         <v>155.7873150125706</v>
@@ -14942,13 +14930,13 @@
         <v>166.3615924179827</v>
       </c>
       <c r="J25" t="n">
-        <v>177.2301290612379</v>
+        <v>245.7528742730618</v>
       </c>
       <c r="K25" t="n">
-        <v>169.51844961555</v>
+        <v>169.6892678128879</v>
       </c>
       <c r="L25" t="n">
-        <v>167.1307844618834</v>
+        <v>167.1307844618831</v>
       </c>
     </row>
   </sheetData>
